--- a/data/strategies/中信建投场内策略结果.xlsx
+++ b/data/strategies/中信建投场内策略结果.xlsx
@@ -18,17 +18,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="193">
+  <si>
+    <t>汇添富中证主要消费ETF</t>
+  </si>
+  <si>
+    <t>方正富邦中证保险（LOF)</t>
+  </si>
   <si>
     <t>南方中证申万有色金属ETF</t>
   </si>
   <si>
-    <t>汇添富中证主要消费ETF</t>
-  </si>
-  <si>
-    <t>方正富邦中证保险（LOF)</t>
-  </si>
-  <si>
     <t>华宝中证科技龙头ETF</t>
   </si>
   <si>
@@ -62,73 +62,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>-1.73%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
+    <t>-1.48%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>4.40%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>-0.75%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>15.82%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>16.35%</t>
   </si>
   <si>
     <t>11.19%</t>
   </si>
   <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>2.32%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>16.18%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>17.71%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>24.06%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>22.30%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场内权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场内基金</t>
@@ -137,88 +134,88 @@
     <t>场内代码</t>
   </si>
   <si>
+    <t>159928.OF</t>
+  </si>
+  <si>
+    <t>167301.OF</t>
+  </si>
+  <si>
     <t>512400.OF</t>
   </si>
   <si>
-    <t>159928.OF</t>
-  </si>
-  <si>
-    <t>167301.OF</t>
-  </si>
-  <si>
     <t>515000.OF</t>
   </si>
   <si>
-    <t>-1.05%</t>
-  </si>
-  <si>
-    <t>-6.38%</t>
-  </si>
-  <si>
-    <t>-6.54%</t>
-  </si>
-  <si>
-    <t>2.22%</t>
-  </si>
-  <si>
-    <t>15.51%</t>
-  </si>
-  <si>
-    <t>6.64%</t>
-  </si>
-  <si>
-    <t>-4.89%</t>
-  </si>
-  <si>
-    <t>17.47%</t>
-  </si>
-  <si>
-    <t>11.38%</t>
-  </si>
-  <si>
-    <t>-3.53%</t>
-  </si>
-  <si>
-    <t>-9.23%</t>
-  </si>
-  <si>
-    <t>1.69%</t>
-  </si>
-  <si>
-    <t>26.97%</t>
-  </si>
-  <si>
-    <t>17.49%</t>
-  </si>
-  <si>
-    <t>14.25%</t>
-  </si>
-  <si>
-    <t>19.22%</t>
-  </si>
-  <si>
-    <t>30.19%</t>
-  </si>
-  <si>
-    <t>21.78%</t>
-  </si>
-  <si>
-    <t>18.29%</t>
-  </si>
-  <si>
-    <t>21.37%</t>
-  </si>
-  <si>
-    <t>40.13%</t>
-  </si>
-  <si>
-    <t>30.15%</t>
+    <t>-9.79%</t>
+  </si>
+  <si>
+    <t>-10.46%</t>
+  </si>
+  <si>
+    <t>13.00%</t>
+  </si>
+  <si>
+    <t>3.29%</t>
+  </si>
+  <si>
+    <t>-3.97%</t>
+  </si>
+  <si>
+    <t>-9.80%</t>
+  </si>
+  <si>
+    <t>24.35%</t>
+  </si>
+  <si>
+    <t>9.35%</t>
+  </si>
+  <si>
+    <t>-9.62%</t>
+  </si>
+  <si>
+    <t>-15.08%</t>
+  </si>
+  <si>
+    <t>27.42%</t>
+  </si>
+  <si>
+    <t>1.46%</t>
+  </si>
+  <si>
+    <t>19.24%</t>
+  </si>
+  <si>
+    <t>18.28%</t>
+  </si>
+  <si>
+    <t>36.60%</t>
+  </si>
+  <si>
+    <t>22.85%</t>
+  </si>
+  <si>
+    <t>21.47%</t>
+  </si>
+  <si>
+    <t>19.66%</t>
+  </si>
+  <si>
+    <t>33.28%</t>
+  </si>
+  <si>
+    <t>21.83%</t>
+  </si>
+  <si>
+    <t>29.76%</t>
   </si>
   <si>
     <t>23.40%</t>
   </si>
   <si>
-    <t>25.62%</t>
+    <t>40.49%</t>
+  </si>
+  <si>
+    <t>25.48%</t>
   </si>
   <si>
     <t>股票代码</t>
@@ -233,307 +230,307 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
-  </si>
-  <si>
-    <t>601318.SH</t>
-  </si>
-  <si>
-    <t>601601.SH</t>
-  </si>
-  <si>
-    <t>002460.SZ</t>
-  </si>
-  <si>
-    <t>601899.SH</t>
+    <t>区间收益率</t>
+  </si>
+  <si>
+    <t>002415.SZ</t>
   </si>
   <si>
     <t>600276.SH</t>
   </si>
   <si>
-    <t>002415.SZ</t>
-  </si>
-  <si>
-    <t>603799.SH</t>
-  </si>
-  <si>
     <t>000725.SZ</t>
   </si>
   <si>
-    <t>601628.SH</t>
+    <t>603501.SH</t>
+  </si>
+  <si>
+    <t>000858.SZ</t>
   </si>
   <si>
     <t>600519.SH</t>
   </si>
   <si>
-    <t>000858.SZ</t>
-  </si>
-  <si>
-    <t>600111.SH</t>
-  </si>
-  <si>
-    <t>603501.SH</t>
-  </si>
-  <si>
     <t>600887.SH</t>
   </si>
   <si>
-    <t>002340.SZ</t>
-  </si>
-  <si>
-    <t>603993.SH</t>
-  </si>
-  <si>
-    <t>601336.SH</t>
-  </si>
-  <si>
-    <t>600547.SH</t>
+    <t>300782.SZ</t>
   </si>
   <si>
     <t>002230.SZ</t>
   </si>
   <si>
+    <t>000100.SZ</t>
+  </si>
+  <si>
+    <t>000063.SZ</t>
+  </si>
+  <si>
+    <t>002241.SZ</t>
+  </si>
+  <si>
+    <t>603986.SH</t>
+  </si>
+  <si>
     <t>000568.SZ</t>
   </si>
   <si>
-    <t>4.30%</t>
-  </si>
-  <si>
-    <t>3.78%</t>
-  </si>
-  <si>
-    <t>3.56%</t>
-  </si>
-  <si>
-    <t>3.34%</t>
-  </si>
-  <si>
-    <t>3.00%</t>
+    <t>603288.SH</t>
+  </si>
+  <si>
+    <t>002714.SZ</t>
+  </si>
+  <si>
+    <t>600809.SH</t>
+  </si>
+  <si>
+    <t>600196.SH</t>
+  </si>
+  <si>
+    <t>600703.SH</t>
+  </si>
+  <si>
+    <t>600570.SH</t>
+  </si>
+  <si>
+    <t>331.09%</t>
+  </si>
+  <si>
+    <t>307.46%</t>
+  </si>
+  <si>
+    <t>255.62%</t>
+  </si>
+  <si>
+    <t>202.92%</t>
+  </si>
+  <si>
+    <t>167.87%</t>
+  </si>
+  <si>
+    <t>159.70%</t>
+  </si>
+  <si>
+    <t>154.60%</t>
+  </si>
+  <si>
+    <t>151.83%</t>
+  </si>
+  <si>
+    <t>145.46%</t>
+  </si>
+  <si>
+    <t>129.86%</t>
+  </si>
+  <si>
+    <t>124.08%</t>
+  </si>
+  <si>
+    <t>123.65%</t>
+  </si>
+  <si>
+    <t>120.78%</t>
+  </si>
+  <si>
+    <t>119.26%</t>
+  </si>
+  <si>
+    <t>112.46%</t>
+  </si>
+  <si>
+    <t>110.45%</t>
+  </si>
+  <si>
+    <t>107.78%</t>
+  </si>
+  <si>
+    <t>105.30%</t>
+  </si>
+  <si>
+    <t>104.21%</t>
+  </si>
+  <si>
+    <t>94.22%</t>
+  </si>
+  <si>
+    <t>海康威视</t>
+  </si>
+  <si>
+    <t>恒瑞医药</t>
+  </si>
+  <si>
+    <t>京东方A</t>
+  </si>
+  <si>
+    <t>韦尔股份</t>
+  </si>
+  <si>
+    <t>五粮液</t>
+  </si>
+  <si>
+    <t>贵州茅台</t>
+  </si>
+  <si>
+    <t>伊利股份</t>
+  </si>
+  <si>
+    <t>卓胜微</t>
+  </si>
+  <si>
+    <t>科大讯飞</t>
+  </si>
+  <si>
+    <t>TCL科技</t>
+  </si>
+  <si>
+    <t>中兴通讯</t>
+  </si>
+  <si>
+    <t>歌尔股份</t>
+  </si>
+  <si>
+    <t>兆易创新</t>
+  </si>
+  <si>
+    <t>泸州老窖</t>
+  </si>
+  <si>
+    <t>海天味业</t>
+  </si>
+  <si>
+    <t>牧原股份</t>
+  </si>
+  <si>
+    <t>山西汾酒</t>
+  </si>
+  <si>
+    <t>复星医药</t>
+  </si>
+  <si>
+    <t>三安光电</t>
+  </si>
+  <si>
+    <t>恒生电子</t>
+  </si>
+  <si>
+    <t>前端音视频产品</t>
+  </si>
+  <si>
+    <t>抗肿瘤</t>
+  </si>
+  <si>
+    <t>显示器件业务</t>
+  </si>
+  <si>
+    <t>CMOS图像传感器产品</t>
+  </si>
+  <si>
+    <t>酒类</t>
+  </si>
+  <si>
+    <t>茅台酒</t>
+  </si>
+  <si>
+    <t>液体乳</t>
+  </si>
+  <si>
+    <t>射频开关</t>
+  </si>
+  <si>
+    <t>教育产品和服务</t>
+  </si>
+  <si>
+    <t>半导体显示业务</t>
+  </si>
+  <si>
+    <t>运营商网络</t>
+  </si>
+  <si>
+    <t>智能声学整机</t>
+  </si>
+  <si>
+    <t>存储芯片销售</t>
+  </si>
+  <si>
+    <t>中高档酒类</t>
+  </si>
+  <si>
+    <t>酱油</t>
+  </si>
+  <si>
+    <t>生猪</t>
+  </si>
+  <si>
+    <t>白酒</t>
+  </si>
+  <si>
+    <t>药品制造与研发</t>
+  </si>
+  <si>
+    <t>化合物半导体产品</t>
+  </si>
+  <si>
+    <t>软件收入</t>
+  </si>
+  <si>
+    <t>35.01%</t>
+  </si>
+  <si>
+    <t>-32.63%</t>
+  </si>
+  <si>
+    <t>8.44%</t>
+  </si>
+  <si>
+    <t>50.37%</t>
+  </si>
+  <si>
+    <t>-4.64%</t>
+  </si>
+  <si>
+    <t>2.40%</t>
+  </si>
+  <si>
+    <t>-19.50%</t>
+  </si>
+  <si>
+    <t>49.93%</t>
+  </si>
+  <si>
+    <t>64.39%</t>
+  </si>
+  <si>
+    <t>17.02%</t>
   </si>
   <si>
     <t>2.87%</t>
   </si>
   <si>
-    <t>2.57%</t>
-  </si>
-  <si>
-    <t>2.03%</t>
-  </si>
-  <si>
-    <t>1.95%</t>
-  </si>
-  <si>
-    <t>1.82%</t>
-  </si>
-  <si>
-    <t>1.73%</t>
-  </si>
-  <si>
-    <t>1.64%</t>
-  </si>
-  <si>
-    <t>1.54%</t>
-  </si>
-  <si>
-    <t>1.50%</t>
-  </si>
-  <si>
-    <t>1.48%</t>
-  </si>
-  <si>
-    <t>1.41%</t>
-  </si>
-  <si>
-    <t>1.37%</t>
-  </si>
-  <si>
-    <t>1.33%</t>
-  </si>
-  <si>
-    <t>1.30%</t>
-  </si>
-  <si>
-    <t>1.26%</t>
-  </si>
-  <si>
-    <t>中国平安</t>
-  </si>
-  <si>
-    <t>中国太保</t>
-  </si>
-  <si>
-    <t>赣锋锂业</t>
-  </si>
-  <si>
-    <t>紫金矿业</t>
-  </si>
-  <si>
-    <t>恒瑞医药</t>
-  </si>
-  <si>
-    <t>海康威视</t>
-  </si>
-  <si>
-    <t>华友钴业</t>
-  </si>
-  <si>
-    <t>京东方A</t>
-  </si>
-  <si>
-    <t>中国人寿</t>
-  </si>
-  <si>
-    <t>贵州茅台</t>
-  </si>
-  <si>
-    <t>五粮液</t>
-  </si>
-  <si>
-    <t>北方稀土</t>
-  </si>
-  <si>
-    <t>韦尔股份</t>
-  </si>
-  <si>
-    <t>伊利股份</t>
-  </si>
-  <si>
-    <t>格林美</t>
-  </si>
-  <si>
-    <t>洛阳钼业</t>
-  </si>
-  <si>
-    <t>新华保险</t>
-  </si>
-  <si>
-    <t>山东黄金</t>
-  </si>
-  <si>
-    <t>科大讯飞</t>
-  </si>
-  <si>
-    <t>泸州老窖</t>
-  </si>
-  <si>
-    <t>产险:机动车辆保险</t>
-  </si>
-  <si>
-    <t>个人寿险</t>
-  </si>
-  <si>
-    <t>锂系列产品</t>
-  </si>
-  <si>
-    <t>加工、冶炼及贸易金</t>
-  </si>
-  <si>
-    <t>抗肿瘤</t>
-  </si>
-  <si>
-    <t>前端音视频产品</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>显示器件业务</t>
-  </si>
-  <si>
-    <t>人寿保险</t>
-  </si>
-  <si>
-    <t>茅台酒</t>
-  </si>
-  <si>
-    <t>酒类</t>
-  </si>
-  <si>
-    <t>其他业务</t>
-  </si>
-  <si>
-    <t>CMOS图像传感器产品</t>
-  </si>
-  <si>
-    <t>液体乳</t>
-  </si>
-  <si>
-    <t>三元材料</t>
-  </si>
-  <si>
-    <t>精炼金属贸易</t>
-  </si>
-  <si>
-    <t>寿险:保险营销员:续期业务</t>
-  </si>
-  <si>
-    <t>外购合质金</t>
-  </si>
-  <si>
-    <t>教育产品和服务</t>
-  </si>
-  <si>
-    <t>中高档酒类</t>
-  </si>
-  <si>
-    <t>-22.18%</t>
-  </si>
-  <si>
-    <t>-16.40%</t>
-  </si>
-  <si>
-    <t>21.15%</t>
-  </si>
-  <si>
-    <t>7.55%</t>
-  </si>
-  <si>
-    <t>-26.78%</t>
-  </si>
-  <si>
-    <t>36.18%</t>
-  </si>
-  <si>
-    <t>47.51%</t>
-  </si>
-  <si>
-    <t>7.93%</t>
-  </si>
-  <si>
-    <t>-7.73%</t>
-  </si>
-  <si>
-    <t>9.82%</t>
-  </si>
-  <si>
-    <t>6.77%</t>
-  </si>
-  <si>
-    <t>59.14%</t>
-  </si>
-  <si>
-    <t>30.18%</t>
-  </si>
-  <si>
-    <t>-13.35%</t>
-  </si>
-  <si>
-    <t>37.76%</t>
-  </si>
-  <si>
-    <t>-10.07%</t>
-  </si>
-  <si>
-    <t>-18.16%</t>
-  </si>
-  <si>
-    <t>-16.68%</t>
-  </si>
-  <si>
-    <t>69.88%</t>
-  </si>
-  <si>
-    <t>4.71%</t>
+    <t>4.62%</t>
+  </si>
+  <si>
+    <t>38.13%</t>
+  </si>
+  <si>
+    <t>-0.49%</t>
+  </si>
+  <si>
+    <t>-23.57%</t>
+  </si>
+  <si>
+    <t>7.27%</t>
+  </si>
+  <si>
+    <t>19.71%</t>
+  </si>
+  <si>
+    <t>25.89%</t>
+  </si>
+  <si>
+    <t>24.28%</t>
+  </si>
+  <si>
+    <t>-15.58%</t>
   </si>
   <si>
     <t>一级标签</t>
@@ -542,49 +539,64 @@
     <t>标签占比</t>
   </si>
   <si>
-    <t>保险</t>
-  </si>
-  <si>
-    <t>有色金属</t>
-  </si>
-  <si>
-    <t>锂电池</t>
-  </si>
-  <si>
     <t>食品饮料</t>
   </si>
   <si>
+    <t>光学光电子</t>
+  </si>
+  <si>
+    <t>半导体芯片</t>
+  </si>
+  <si>
     <t>电子</t>
   </si>
   <si>
     <t>医药生物</t>
   </si>
   <si>
-    <t>集成电路</t>
-  </si>
-  <si>
     <t>软件开发</t>
   </si>
   <si>
-    <t>26.04%</t>
-  </si>
-  <si>
-    <t>17.63%</t>
-  </si>
-  <si>
-    <t>17.38%</t>
-  </si>
-  <si>
-    <t>14.41%</t>
-  </si>
-  <si>
-    <t>6.85%</t>
-  </si>
-  <si>
-    <t>3.52%</t>
-  </si>
-  <si>
-    <t>2.97%</t>
+    <t>通信</t>
+  </si>
+  <si>
+    <t>消费电子</t>
+  </si>
+  <si>
+    <t>饲料养殖</t>
+  </si>
+  <si>
+    <t>生物制品</t>
+  </si>
+  <si>
+    <t>16.60%</t>
+  </si>
+  <si>
+    <t>9.89%</t>
+  </si>
+  <si>
+    <t>9.61%</t>
+  </si>
+  <si>
+    <t>6.69%</t>
+  </si>
+  <si>
+    <t>6.21%</t>
+  </si>
+  <si>
+    <t>4.84%</t>
+  </si>
+  <si>
+    <t>2.51%</t>
+  </si>
+  <si>
+    <t>2.50%</t>
+  </si>
+  <si>
+    <t>2.23%</t>
+  </si>
+  <si>
+    <t>2.13%</t>
   </si>
 </sst>
 </file>
@@ -948,7 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1011,19 +1023,19 @@
         <v>44200</v>
       </c>
       <c r="B3">
+        <v>1.039420956763494</v>
+      </c>
+      <c r="C3">
+        <v>0.9870921901829594</v>
+      </c>
+      <c r="D3">
         <v>1.056768131545464</v>
-      </c>
-      <c r="C3">
-        <v>1.039420956763494</v>
-      </c>
-      <c r="D3">
-        <v>0.9871031746031745</v>
       </c>
       <c r="E3">
         <v>1.010953927450873</v>
       </c>
       <c r="F3">
-        <v>1.027292442459746</v>
+        <v>1.024254874443566</v>
       </c>
       <c r="G3">
         <v>1.018168368380631</v>
@@ -1037,19 +1049,19 @@
         <v>44201</v>
       </c>
       <c r="B4">
+        <v>1.092186751030582</v>
+      </c>
+      <c r="C4">
+        <v>0.9761975250162828</v>
+      </c>
+      <c r="D4">
         <v>1.068219633943428</v>
-      </c>
-      <c r="C4">
-        <v>1.092186751030582</v>
-      </c>
-      <c r="D4">
-        <v>0.9761904761904762</v>
       </c>
       <c r="E4">
         <v>1.046898222050971</v>
       </c>
       <c r="F4">
-        <v>1.049953331309061</v>
+        <v>1.054148739855571</v>
       </c>
       <c r="G4">
         <v>1.027111201157197</v>
@@ -1063,19 +1075,19 @@
         <v>44202</v>
       </c>
       <c r="B5">
+        <v>1.100853225961078</v>
+      </c>
+      <c r="C5">
+        <v>0.9940197761856829</v>
+      </c>
+      <c r="D5">
         <v>1.073407066653616</v>
-      </c>
-      <c r="C5">
-        <v>1.100853225961078</v>
-      </c>
-      <c r="D5">
-        <v>0.994047619047619</v>
       </c>
       <c r="E5">
         <v>1.048329388451588</v>
       </c>
       <c r="F5">
-        <v>1.056565740277689</v>
+        <v>1.061364224084275</v>
       </c>
       <c r="G5">
         <v>1.025290909062353</v>
@@ -1089,19 +1101,19 @@
         <v>44203</v>
       </c>
       <c r="B6">
+        <v>1.115156744319816</v>
+      </c>
+      <c r="C6">
+        <v>1.008940730653088</v>
+      </c>
+      <c r="D6">
         <v>1.115102280512871</v>
-      </c>
-      <c r="C6">
-        <v>1.115156744319816</v>
-      </c>
-      <c r="D6">
-        <v>1.008928571428571</v>
       </c>
       <c r="E6">
         <v>1.056035669070292</v>
       </c>
       <c r="F6">
-        <v>1.078100623266056</v>
+        <v>1.078112160704317</v>
       </c>
       <c r="G6">
         <v>1.026858339183711</v>
@@ -1115,19 +1127,19 @@
         <v>44204</v>
       </c>
       <c r="B7">
+        <v>1.084306394401304</v>
+      </c>
+      <c r="C7">
+        <v>1.006927586002724</v>
+      </c>
+      <c r="D7">
         <v>1.111187236958011</v>
-      </c>
-      <c r="C7">
-        <v>1.084306394401304</v>
-      </c>
-      <c r="D7">
-        <v>1.006944444444444</v>
       </c>
       <c r="E7">
         <v>1.062530962734629</v>
       </c>
       <c r="F7">
-        <v>1.0734952666777</v>
+        <v>1.068788337587392</v>
       </c>
       <c r="G7">
         <v>1.029917812005761</v>
@@ -1141,19 +1153,19 @@
         <v>44207</v>
       </c>
       <c r="B8">
+        <v>1.04889272361231</v>
+      </c>
+      <c r="C8">
+        <v>1.001006572325182</v>
+      </c>
+      <c r="D8">
         <v>1.063717333855339</v>
-      </c>
-      <c r="C8">
-        <v>1.04889272361231</v>
-      </c>
-      <c r="D8">
-        <v>1.000992063492063</v>
       </c>
       <c r="E8">
         <v>1.071723454615512</v>
       </c>
       <c r="F8">
-        <v>1.053563623406156</v>
+        <v>1.05097171057109</v>
       </c>
       <c r="G8">
         <v>1.013866573688848</v>
@@ -1167,19 +1179,19 @@
         <v>44208</v>
       </c>
       <c r="B9">
+        <v>1.072265362860704</v>
+      </c>
+      <c r="C9">
+        <v>1.036710284800758</v>
+      </c>
+      <c r="D9">
         <v>1.08808847998434</v>
-      </c>
-      <c r="C9">
-        <v>1.072265362860704</v>
-      </c>
-      <c r="D9">
-        <v>1.036706349206349</v>
       </c>
       <c r="E9">
         <v>1.097704629272857</v>
       </c>
       <c r="F9">
-        <v>1.080172943345782</v>
+        <v>1.077404547222223</v>
       </c>
       <c r="G9">
         <v>1.027660901099557</v>
@@ -1193,19 +1205,19 @@
         <v>44209</v>
       </c>
       <c r="B10">
+        <v>1.060147636851692</v>
+      </c>
+      <c r="C10">
+        <v>1.023802474983717</v>
+      </c>
+      <c r="D10">
         <v>1.05392972496819</v>
-      </c>
-      <c r="C10">
-        <v>1.060147636851692</v>
-      </c>
-      <c r="D10">
-        <v>1.023809523809524</v>
       </c>
       <c r="E10">
         <v>1.09346617493257</v>
       </c>
       <c r="F10">
-        <v>1.063032875726033</v>
+        <v>1.064119847249388</v>
       </c>
       <c r="G10">
         <v>1.020386015005238</v>
@@ -1219,19 +1231,19 @@
         <v>44210</v>
       </c>
       <c r="B11">
+        <v>1.033074489502445</v>
+      </c>
+      <c r="C11">
+        <v>1.018828823494582</v>
+      </c>
+      <c r="D11">
         <v>1.032984241949692</v>
-      </c>
-      <c r="C11">
-        <v>1.033074489502445</v>
-      </c>
-      <c r="D11">
-        <v>1.018849206349206</v>
       </c>
       <c r="E11">
         <v>1.0800352287114</v>
       </c>
       <c r="F11">
-        <v>1.046193677553179</v>
+        <v>1.046206107703898</v>
       </c>
       <c r="G11">
         <v>1.011430617658561</v>
@@ -1245,19 +1257,19 @@
         <v>44211</v>
       </c>
       <c r="B12">
+        <v>1.012616240053686</v>
+      </c>
+      <c r="C12">
+        <v>1.043637870803481</v>
+      </c>
+      <c r="D12">
         <v>1.043750611725555</v>
-      </c>
-      <c r="C12">
-        <v>1.012616240053686</v>
-      </c>
-      <c r="D12">
-        <v>1.043650793650793</v>
       </c>
       <c r="E12">
         <v>1.070017063907084</v>
       </c>
       <c r="F12">
-        <v>1.047264899637266</v>
+        <v>1.041814252324882</v>
       </c>
       <c r="G12">
         <v>1.007914108598721</v>
@@ -1271,19 +1283,19 @@
         <v>44214</v>
       </c>
       <c r="B13">
+        <v>1.010622183874988</v>
+      </c>
+      <c r="C13">
+        <v>1.046598377642252</v>
+      </c>
+      <c r="D13">
         <v>1.059508662033865</v>
-      </c>
-      <c r="C13">
-        <v>1.010622183874988</v>
-      </c>
-      <c r="D13">
-        <v>1.046626984126984</v>
       </c>
       <c r="E13">
         <v>1.091319425331645</v>
       </c>
       <c r="F13">
-        <v>1.059814468171282</v>
+        <v>1.051254614423498</v>
       </c>
       <c r="G13">
         <v>1.023142367573358</v>
@@ -1297,19 +1309,19 @@
         <v>44215</v>
       </c>
       <c r="B14">
+        <v>0.9903556705972582</v>
+      </c>
+      <c r="C14">
+        <v>1.051572029131387</v>
+      </c>
+      <c r="D14">
         <v>1.022413624351571</v>
-      </c>
-      <c r="C14">
-        <v>0.9903556705972582</v>
-      </c>
-      <c r="D14">
-        <v>1.051587301587302</v>
       </c>
       <c r="E14">
         <v>1.074090383662685</v>
       </c>
       <c r="F14">
-        <v>1.038991049298672</v>
+        <v>1.033378387436442</v>
       </c>
       <c r="G14">
         <v>1.017160061629216</v>
@@ -1323,19 +1335,19 @@
         <v>44216</v>
       </c>
       <c r="B15">
+        <v>0.9969322212635414</v>
+      </c>
+      <c r="C15">
+        <v>1.02776955414767</v>
+      </c>
+      <c r="D15">
         <v>1.053146716257218</v>
-      </c>
-      <c r="C15">
-        <v>0.9969322212635414</v>
-      </c>
-      <c r="D15">
-        <v>1.027777777777778</v>
       </c>
       <c r="E15">
         <v>1.086145208344801</v>
       </c>
       <c r="F15">
-        <v>1.050574952123056</v>
+        <v>1.040736058600195</v>
       </c>
       <c r="G15">
         <v>1.026434284942462</v>
@@ -1349,19 +1361,19 @@
         <v>44217</v>
       </c>
       <c r="B16">
+        <v>1.018962707314735</v>
+      </c>
+      <c r="C16">
+        <v>1.025756409497306</v>
+      </c>
+      <c r="D16">
         <v>1.090535382206127</v>
-      </c>
-      <c r="C16">
-        <v>1.018962707314735</v>
-      </c>
-      <c r="D16">
-        <v>1.025793650793651</v>
       </c>
       <c r="E16">
         <v>1.108438377277481</v>
       </c>
       <c r="F16">
-        <v>1.073951493539536</v>
+        <v>1.061420130619645</v>
       </c>
       <c r="G16">
         <v>1.04011081950838</v>
@@ -1375,19 +1387,19 @@
         <v>44218</v>
       </c>
       <c r="B17">
+        <v>1.017850637522769</v>
+      </c>
+      <c r="C17">
+        <v>1.001953934513589</v>
+      </c>
+      <c r="D17">
         <v>1.10061661935989</v>
-      </c>
-      <c r="C17">
-        <v>1.017850637522769</v>
-      </c>
-      <c r="D17">
-        <v>1.001984126984127</v>
       </c>
       <c r="E17">
         <v>1.116695106511807</v>
       </c>
       <c r="F17">
-        <v>1.075991771874897</v>
+        <v>1.061502743295762</v>
       </c>
       <c r="G17">
         <v>1.042515364113389</v>
@@ -1401,19 +1413,19 @@
         <v>44221</v>
       </c>
       <c r="B18">
+        <v>1.056293739814016</v>
+      </c>
+      <c r="C18">
+        <v>1.012907809817041</v>
+      </c>
+      <c r="D18">
         <v>1.116178917490457</v>
-      </c>
-      <c r="C18">
-        <v>1.056293739814016</v>
-      </c>
-      <c r="D18">
-        <v>1.012896825396825</v>
       </c>
       <c r="E18">
         <v>1.109979633401222</v>
       </c>
       <c r="F18">
-        <v>1.087210554228947</v>
+        <v>1.076732460564906</v>
       </c>
       <c r="G18">
         <v>1.043693292561303</v>
@@ -1427,19 +1439,19 @@
         <v>44222</v>
       </c>
       <c r="B19">
+        <v>1.047569744032212</v>
+      </c>
+      <c r="C19">
+        <v>0.99005269702173</v>
+      </c>
+      <c r="D19">
         <v>1.09601644318293</v>
-      </c>
-      <c r="C19">
-        <v>1.047569744032212</v>
-      </c>
-      <c r="D19">
-        <v>0.9900793650793651</v>
       </c>
       <c r="E19">
         <v>1.07166840975395</v>
       </c>
       <c r="F19">
-        <v>1.06250826890441</v>
+        <v>1.054025696323524</v>
       </c>
       <c r="G19">
         <v>1.026047924411546</v>
@@ -1453,19 +1465,19 @@
         <v>44223</v>
       </c>
       <c r="B20">
+        <v>1.038577317610967</v>
+      </c>
+      <c r="C20">
+        <v>0.9970394931612291</v>
+      </c>
+      <c r="D20">
         <v>1.089262993050798</v>
-      </c>
-      <c r="C20">
-        <v>1.038577317610967</v>
-      </c>
-      <c r="D20">
-        <v>0.9970238095238093</v>
       </c>
       <c r="E20">
         <v>1.080585677327021</v>
       </c>
       <c r="F20">
-        <v>1.062816877132426</v>
+        <v>1.05394947173063</v>
       </c>
       <c r="G20">
         <v>1.02984870687015</v>
@@ -1479,19 +1491,19 @@
         <v>44224</v>
       </c>
       <c r="B21">
+        <v>1.019384526890998</v>
+      </c>
+      <c r="C21">
+        <v>0.9761975250162828</v>
+      </c>
+      <c r="D21">
         <v>1.049133796613487</v>
-      </c>
-      <c r="C21">
-        <v>1.019384526890998</v>
-      </c>
-      <c r="D21">
-        <v>0.9761904761904762</v>
       </c>
       <c r="E21">
         <v>1.029008642043265</v>
       </c>
       <c r="F21">
-        <v>1.025548218231306</v>
+        <v>1.020343259086129</v>
       </c>
       <c r="G21">
         <v>1.007424090364388</v>
@@ -1505,19 +1517,19 @@
         <v>44225</v>
       </c>
       <c r="B22">
+        <v>1.017716422203049</v>
+      </c>
+      <c r="C22">
+        <v>0.9523950500325655</v>
+      </c>
+      <c r="D22">
         <v>1.036312028971322</v>
-      </c>
-      <c r="C22">
-        <v>1.017716422203049</v>
-      </c>
-      <c r="D22">
-        <v>0.9523809523809523</v>
       </c>
       <c r="E22">
         <v>1.024219739087356</v>
       </c>
       <c r="F22">
-        <v>1.015404670555437</v>
+        <v>1.012152765483506</v>
       </c>
       <c r="G22">
         <v>0.9967065120596316</v>
@@ -1531,19 +1543,19 @@
         <v>44228</v>
       </c>
       <c r="B23">
+        <v>1.020975937110536</v>
+      </c>
+      <c r="C23">
+        <v>0.9612765705488779</v>
+      </c>
+      <c r="D23">
         <v>1.048155035724772</v>
-      </c>
-      <c r="C23">
-        <v>1.020975937110536</v>
-      </c>
-      <c r="D23">
-        <v>0.9613095238095237</v>
       </c>
       <c r="E23">
         <v>1.03445808333792</v>
       </c>
       <c r="F23">
-        <v>1.024820980699746</v>
+        <v>1.020059201154248</v>
       </c>
       <c r="G23">
         <v>1.004110184997589</v>
@@ -1557,19 +1569,19 @@
         <v>44229</v>
       </c>
       <c r="B24">
+        <v>1.052324801073723</v>
+      </c>
+      <c r="C24">
+        <v>0.9612765705488779</v>
+      </c>
+      <c r="D24">
         <v>1.078790251541548</v>
-      </c>
-      <c r="C24">
-        <v>1.052324801073723</v>
-      </c>
-      <c r="D24">
-        <v>0.9613095238095237</v>
       </c>
       <c r="E24">
         <v>1.050531182914075</v>
       </c>
       <c r="F24">
-        <v>1.045713639491507</v>
+        <v>1.041076748371631</v>
       </c>
       <c r="G24">
         <v>1.013770768841751</v>
@@ -1583,19 +1595,19 @@
         <v>44230</v>
       </c>
       <c r="B25">
+        <v>1.058441184929537</v>
+      </c>
+      <c r="C25">
+        <v>0.9553555568713363</v>
+      </c>
+      <c r="D25">
         <v>1.084564940784966</v>
-      </c>
-      <c r="C25">
-        <v>1.058441184929537</v>
-      </c>
-      <c r="D25">
-        <v>0.9553571428571428</v>
       </c>
       <c r="E25">
         <v>1.024164694225794</v>
       </c>
       <c r="F25">
-        <v>1.039003153046203</v>
+        <v>1.034431234083845</v>
       </c>
       <c r="G25">
         <v>1.00506038061224</v>
@@ -1609,19 +1621,19 @@
         <v>44231</v>
       </c>
       <c r="B26">
+        <v>1.061355574729173</v>
+      </c>
+      <c r="C26">
+        <v>0.9662502220380128</v>
+      </c>
+      <c r="D26">
         <v>1.040227072526182</v>
-      </c>
-      <c r="C26">
-        <v>1.061355574729173</v>
-      </c>
-      <c r="D26">
-        <v>0.9662698412698412</v>
       </c>
       <c r="E26">
         <v>1.013651125667419</v>
       </c>
       <c r="F26">
-        <v>1.022740269768987</v>
+        <v>1.026434520481259</v>
       </c>
       <c r="G26">
         <v>0.9939815709167896</v>
@@ -1635,19 +1647,19 @@
         <v>44232</v>
       </c>
       <c r="B27">
+        <v>1.071134119451635</v>
+      </c>
+      <c r="C27">
+        <v>0.9801646041802357</v>
+      </c>
+      <c r="D27">
         <v>0.9885484976020358</v>
-      </c>
-      <c r="C27">
-        <v>1.071134119451635</v>
-      </c>
-      <c r="D27">
-        <v>0.9801587301587301</v>
       </c>
       <c r="E27">
         <v>1.006660428249023</v>
       </c>
       <c r="F27">
-        <v>1.00676775069258</v>
+        <v>1.021221203729808</v>
       </c>
       <c r="G27">
         <v>0.9800160512383169</v>
@@ -1661,19 +1673,19 @@
         <v>44235</v>
       </c>
       <c r="B28">
+        <v>1.092436008052919</v>
+      </c>
+      <c r="C28">
+        <v>0.9722304458523299</v>
+      </c>
+      <c r="D28">
         <v>1.028873446217089</v>
-      </c>
-      <c r="C28">
-        <v>1.092436008052919</v>
-      </c>
-      <c r="D28">
-        <v>0.9722222222222221</v>
       </c>
       <c r="E28">
         <v>1.018550118346452</v>
       </c>
       <c r="F28">
-        <v>1.026607118763538</v>
+        <v>1.037731923983776</v>
       </c>
       <c r="G28">
         <v>0.9930973392952219</v>
@@ -1687,19 +1699,19 @@
         <v>44236</v>
       </c>
       <c r="B29">
+        <v>1.118895599654875</v>
+      </c>
+      <c r="C29">
+        <v>0.9741843803659186</v>
+      </c>
+      <c r="D29">
         <v>1.080062640696878</v>
-      </c>
-      <c r="C29">
-        <v>1.118895599654875</v>
-      </c>
-      <c r="D29">
-        <v>0.9742063492063491</v>
       </c>
       <c r="E29">
         <v>1.04332030604943</v>
       </c>
       <c r="F29">
-        <v>1.056878820395352</v>
+        <v>1.063670963354331</v>
       </c>
       <c r="G29">
         <v>1.014256075362292</v>
@@ -1713,19 +1725,19 @@
         <v>44237</v>
       </c>
       <c r="B30">
+        <v>1.157530438117151</v>
+      </c>
+      <c r="C30">
+        <v>0.9831251110190065</v>
+      </c>
+      <c r="D30">
         <v>1.108936086913967</v>
-      </c>
-      <c r="C30">
-        <v>1.157530438117151</v>
-      </c>
-      <c r="D30">
-        <v>0.9831349206349206</v>
       </c>
       <c r="E30">
         <v>1.06660428249023</v>
       </c>
       <c r="F30">
-        <v>1.082227466966616</v>
+        <v>1.090729859840548</v>
       </c>
       <c r="G30">
         <v>1.024824449396979</v>
@@ -1739,19 +1751,19 @@
         <v>44245</v>
       </c>
       <c r="B31">
+        <v>1.122423545201802</v>
+      </c>
+      <c r="C31">
+        <v>1.013855172005447</v>
+      </c>
+      <c r="D31">
         <v>1.181070764412254</v>
-      </c>
-      <c r="C31">
-        <v>1.122423545201802</v>
-      </c>
-      <c r="D31">
-        <v>1.013888888888889</v>
       </c>
       <c r="E31">
         <v>1.044806517311609</v>
       </c>
       <c r="F31">
-        <v>1.098841762237961</v>
+        <v>1.088572935590365</v>
       </c>
       <c r="G31">
         <v>1.038860644782327</v>
@@ -1765,19 +1777,19 @@
         <v>44246</v>
       </c>
       <c r="B32">
+        <v>1.140101620170645</v>
+      </c>
+      <c r="C32">
+        <v>1.032743205636805</v>
+      </c>
+      <c r="D32">
         <v>1.197513947342664</v>
-      </c>
-      <c r="C32">
-        <v>1.140101620170645</v>
-      </c>
-      <c r="D32">
-        <v>1.032738095238095</v>
       </c>
       <c r="E32">
         <v>1.04128364617163</v>
       </c>
       <c r="F32">
-        <v>1.109296898375586</v>
+        <v>1.09925058433627</v>
       </c>
       <c r="G32">
         <v>1.052829305603327</v>
@@ -1791,19 +1803,19 @@
         <v>44249</v>
       </c>
       <c r="B33">
+        <v>1.086760617390471</v>
+      </c>
+      <c r="C33">
+        <v>1.023802474983717</v>
+      </c>
+      <c r="D33">
         <v>1.254477831065871</v>
-      </c>
-      <c r="C33">
-        <v>1.086760617390471</v>
-      </c>
-      <c r="D33">
-        <v>1.023809523809524</v>
       </c>
       <c r="E33">
         <v>1.009137447019321</v>
       </c>
       <c r="F33">
-        <v>1.107781893376771</v>
+        <v>1.078430217927318</v>
       </c>
       <c r="G33">
         <v>1.045538713796369</v>
@@ -1817,19 +1829,19 @@
         <v>44250</v>
       </c>
       <c r="B34">
+        <v>1.075927523727351</v>
+      </c>
+      <c r="C34">
+        <v>1.048611522292616</v>
+      </c>
+      <c r="D34">
         <v>1.237055887246746</v>
-      </c>
-      <c r="C34">
-        <v>1.075927523727351</v>
-      </c>
-      <c r="D34">
-        <v>1.048611111111111</v>
       </c>
       <c r="E34">
         <v>1.01012825452744</v>
       </c>
       <c r="F34">
-        <v>1.104490200406295</v>
+        <v>1.076292804635349</v>
       </c>
       <c r="G34">
         <v>1.041481928221752</v>
@@ -1843,19 +1855,19 @@
         <v>44251</v>
       </c>
       <c r="B35">
+        <v>1.036755823986195</v>
+      </c>
+      <c r="C35">
+        <v>1.02776955414767</v>
+      </c>
+      <c r="D35">
         <v>1.182343153567583</v>
-      </c>
-      <c r="C35">
-        <v>1.036755823986195</v>
-      </c>
-      <c r="D35">
-        <v>1.027777777777778</v>
       </c>
       <c r="E35">
         <v>0.9914680464578631</v>
       </c>
       <c r="F35">
-        <v>1.069829171835129</v>
+        <v>1.044350032259418</v>
       </c>
       <c r="G35">
         <v>1.026555218929781</v>
@@ -1869,19 +1881,19 @@
         <v>44252</v>
       </c>
       <c r="B36">
+        <v>1.026095292877001</v>
+      </c>
+      <c r="C36">
+        <v>1.06548641127361</v>
+      </c>
+      <c r="D36">
         <v>1.168934129392189</v>
-      </c>
-      <c r="C36">
-        <v>1.026095292877001</v>
-      </c>
-      <c r="D36">
-        <v>1.06547619047619</v>
       </c>
       <c r="E36">
         <v>0.9862387846094568</v>
       </c>
       <c r="F36">
-        <v>1.068005697667742</v>
+        <v>1.043010587709158</v>
       </c>
       <c r="G36">
         <v>1.020737822968348</v>
@@ -1895,19 +1907,19 @@
         <v>44253</v>
       </c>
       <c r="B37">
+        <v>0.9980251174384047</v>
+      </c>
+      <c r="C37">
+        <v>1.023802474983717</v>
+      </c>
+      <c r="D37">
         <v>1.116766174023686</v>
-      </c>
-      <c r="C37">
-        <v>0.9980251174384047</v>
-      </c>
-      <c r="D37">
-        <v>1.023809523809524</v>
       </c>
       <c r="E37">
         <v>0.9754499917432707</v>
       </c>
       <c r="F37">
-        <v>1.035201712249241</v>
+        <v>1.014420864290559</v>
       </c>
       <c r="G37">
         <v>0.9995665223311676</v>
@@ -1921,19 +1933,19 @@
         <v>44256</v>
       </c>
       <c r="B38">
+        <v>1.009395072380405</v>
+      </c>
+      <c r="C38">
+        <v>1.0178222511694</v>
+      </c>
+      <c r="D38">
         <v>1.158069883527454</v>
-      </c>
-      <c r="C38">
-        <v>1.009395072380405</v>
-      </c>
-      <c r="D38">
-        <v>1.017857142857143</v>
       </c>
       <c r="E38">
         <v>0.9960367699675235</v>
       </c>
       <c r="F38">
-        <v>1.056932510002813</v>
+        <v>1.030908660923601</v>
       </c>
       <c r="G38">
         <v>1.019055741144727</v>
@@ -1947,19 +1959,19 @@
         <v>44257</v>
       </c>
       <c r="B39">
+        <v>0.9887067395264117</v>
+      </c>
+      <c r="C39">
+        <v>1.010894665166677</v>
+      </c>
+      <c r="D39">
         <v>1.119213076245473</v>
-      </c>
-      <c r="C39">
-        <v>0.9887067395264117</v>
-      </c>
-      <c r="D39">
-        <v>1.010912698412698</v>
       </c>
       <c r="E39">
         <v>0.9918533604887985</v>
       </c>
       <c r="F39">
-        <v>1.037781262144718</v>
+        <v>1.014939677733288</v>
       </c>
       <c r="G39">
         <v>1.010400322909452</v>
@@ -1973,19 +1985,19 @@
         <v>44258</v>
       </c>
       <c r="B40">
+        <v>1.001974882561595</v>
+      </c>
+      <c r="C40">
+        <v>1.048611522292616</v>
+      </c>
+      <c r="D40">
         <v>1.160908290104727</v>
-      </c>
-      <c r="C40">
-        <v>1.001974882561595</v>
-      </c>
-      <c r="D40">
-        <v>1.048611111111111</v>
       </c>
       <c r="E40">
         <v>1.003908185170914</v>
       </c>
       <c r="F40">
-        <v>1.064345208698005</v>
+        <v>1.036531930222906</v>
       </c>
       <c r="G40">
         <v>1.024758485403896</v>
@@ -1999,19 +2011,19 @@
         <v>44259</v>
       </c>
       <c r="B41">
+        <v>0.9587958968459401</v>
+      </c>
+      <c r="C41">
+        <v>1.043637870803481</v>
+      </c>
+      <c r="D41">
         <v>1.115395908779485</v>
-      </c>
-      <c r="C41">
-        <v>0.9587958968459401</v>
-      </c>
-      <c r="D41">
-        <v>1.043650793650793</v>
       </c>
       <c r="E41">
         <v>0.9703308196179886</v>
       </c>
       <c r="F41">
-        <v>1.029847483390922</v>
+        <v>1.002440349032745</v>
       </c>
       <c r="G41">
         <v>1.005478152568434</v>
@@ -2025,19 +2037,19 @@
         <v>44260</v>
       </c>
       <c r="B42">
+        <v>0.9585849870578086</v>
+      </c>
+      <c r="C42">
+        <v>1.018828823494582</v>
+      </c>
+      <c r="D42">
         <v>1.077713614563962</v>
-      </c>
-      <c r="C42">
-        <v>0.9585849870578086</v>
-      </c>
-      <c r="D42">
-        <v>1.018849206349206</v>
       </c>
       <c r="E42">
         <v>0.9719821654648538</v>
       </c>
       <c r="F42">
-        <v>1.013453385467306</v>
+        <v>0.9926025124827165</v>
       </c>
       <c r="G42">
         <v>1.005715308829281</v>
@@ -2051,19 +2063,19 @@
         <v>44263</v>
       </c>
       <c r="B43">
+        <v>0.908407631099607</v>
+      </c>
+      <c r="C43">
+        <v>1.011901237491859</v>
+      </c>
+      <c r="D43">
         <v>1.047861407458158</v>
-      </c>
-      <c r="C43">
-        <v>0.908407631099607</v>
-      </c>
-      <c r="D43">
-        <v>1.011904761904762</v>
       </c>
       <c r="E43">
         <v>0.9341663455716409</v>
       </c>
       <c r="F43">
-        <v>0.9813993174201361</v>
+        <v>0.9569943250292606</v>
       </c>
       <c r="G43">
         <v>0.9826137761087841</v>
@@ -2077,19 +2089,19 @@
         <v>44264</v>
       </c>
       <c r="B44">
+        <v>0.8819863867318569</v>
+      </c>
+      <c r="C44">
+        <v>0.9979868553496358</v>
+      </c>
+      <c r="D44">
         <v>1.030733091905647</v>
-      </c>
-      <c r="C44">
-        <v>0.8819863867318569</v>
-      </c>
-      <c r="D44">
-        <v>0.9980158730158729</v>
       </c>
       <c r="E44">
         <v>0.9073044531293004</v>
       </c>
       <c r="F44">
-        <v>0.9600600936389647</v>
+        <v>0.9340246323186223</v>
       </c>
       <c r="G44">
         <v>0.9593049279814547</v>
@@ -2103,19 +2115,19 @@
         <v>44265</v>
       </c>
       <c r="B45">
+        <v>0.8959256063656409</v>
+      </c>
+      <c r="C45">
+        <v>0.9860856178577772</v>
+      </c>
+      <c r="D45">
         <v>1.029852207105804</v>
-      </c>
-      <c r="C45">
-        <v>0.8959256063656409</v>
-      </c>
-      <c r="D45">
-        <v>0.986111111111111</v>
       </c>
       <c r="E45">
         <v>0.9117080420542742</v>
       </c>
       <c r="F45">
-        <v>0.961549462677548</v>
+        <v>0.9381081011612193</v>
       </c>
       <c r="G45">
         <v>0.952121135020441</v>
@@ -2129,19 +2141,19 @@
         <v>44266</v>
       </c>
       <c r="B46">
+        <v>0.9207554405138531</v>
+      </c>
+      <c r="C46">
+        <v>1.012907809817041</v>
+      </c>
+      <c r="D46">
         <v>1.093080160516786</v>
-      </c>
-      <c r="C46">
-        <v>0.9207554405138531</v>
-      </c>
-      <c r="D46">
-        <v>1.012896825396825</v>
       </c>
       <c r="E46">
         <v>0.9213408928276545</v>
       </c>
       <c r="F46">
-        <v>0.9947423730840952</v>
+        <v>0.9645873595129175</v>
       </c>
       <c r="G46">
         <v>0.9759262836671583</v>
@@ -2155,19 +2167,19 @@
         <v>44267</v>
       </c>
       <c r="B47">
+        <v>0.919892627744224</v>
+      </c>
+      <c r="C47">
+        <v>1.010894665166677</v>
+      </c>
+      <c r="D47">
         <v>1.080160516785749</v>
-      </c>
-      <c r="C47">
-        <v>0.919892627744224</v>
-      </c>
-      <c r="D47">
-        <v>1.010912698412698</v>
       </c>
       <c r="E47">
         <v>0.9142951505476964</v>
       </c>
       <c r="F47">
-        <v>0.9875548542037866</v>
+        <v>0.9595049981359263</v>
       </c>
       <c r="G47">
         <v>0.9772691220977807</v>
@@ -2181,19 +2193,19 @@
         <v>44270</v>
       </c>
       <c r="B48">
+        <v>0.885859457386636</v>
+      </c>
+      <c r="C48">
+        <v>1.007934158327906</v>
+      </c>
+      <c r="D48">
         <v>1.082411666829794</v>
-      </c>
-      <c r="C48">
-        <v>0.885859457386636</v>
-      </c>
-      <c r="D48">
-        <v>1.007936507936508</v>
       </c>
       <c r="E48">
         <v>0.879506798040403</v>
       </c>
       <c r="F48">
-        <v>0.9707335443537817</v>
+        <v>0.9363365200158096</v>
       </c>
       <c r="G48">
         <v>0.9696502808966706</v>
@@ -2207,19 +2219,19 @@
         <v>44271</v>
       </c>
       <c r="B49">
+        <v>0.9008340523439747</v>
+      </c>
+      <c r="C49">
+        <v>1.024809047308899</v>
+      </c>
+      <c r="D49">
         <v>1.059704414211608</v>
-      </c>
-      <c r="C49">
-        <v>0.9008340523439747</v>
-      </c>
-      <c r="D49">
-        <v>1.024801587301587</v>
       </c>
       <c r="E49">
         <v>0.8780756316397864</v>
       </c>
       <c r="F49">
-        <v>0.9677943398145941</v>
+        <v>0.9399932573889647</v>
       </c>
       <c r="G49">
         <v>0.9730065916875945</v>
@@ -2233,19 +2245,19 @@
         <v>44272</v>
       </c>
       <c r="B50">
+        <v>0.9171316268814111</v>
+      </c>
+      <c r="C50">
+        <v>0.9989934276748179</v>
+      </c>
+      <c r="D50">
         <v>1.065576979543897</v>
-      </c>
-      <c r="C50">
-        <v>0.9171316268814111</v>
-      </c>
-      <c r="D50">
-        <v>0.9990079365079364</v>
       </c>
       <c r="E50">
         <v>0.8911763086915836</v>
       </c>
       <c r="F50">
-        <v>0.9725473828723901</v>
+        <v>0.9465670521989905</v>
       </c>
       <c r="G50">
         <v>0.9777371523344186</v>
@@ -2259,19 +2271,19 @@
         <v>44273</v>
       </c>
       <c r="B51">
+        <v>0.9340044099319337</v>
+      </c>
+      <c r="C51">
+        <v>0.9910592693469121</v>
+      </c>
+      <c r="D51">
         <v>1.065674855632769</v>
-      </c>
-      <c r="C51">
-        <v>0.9340044099319337</v>
-      </c>
-      <c r="D51">
-        <v>0.9910714285714285</v>
       </c>
       <c r="E51">
         <v>0.8953046733087466</v>
       </c>
       <c r="F51">
-        <v>0.9754175064600826</v>
+        <v>0.9523731721903912</v>
       </c>
       <c r="G51">
         <v>0.9853544229642648</v>
@@ -2285,19 +2297,19 @@
         <v>44274</v>
       </c>
       <c r="B52">
+        <v>0.9085034991851213</v>
+      </c>
+      <c r="C52">
+        <v>0.96228314287406</v>
+      </c>
+      <c r="D52">
         <v>1.042869726925712</v>
-      </c>
-      <c r="C52">
-        <v>0.9085034991851213</v>
-      </c>
-      <c r="D52">
-        <v>0.9623015873015872</v>
       </c>
       <c r="E52">
         <v>0.8732316838223152</v>
       </c>
       <c r="F52">
-        <v>0.951425002086413</v>
+        <v>0.9279078689012676</v>
       </c>
       <c r="G52">
         <v>0.9747907606433689</v>
@@ -2311,19 +2323,19 @@
         <v>44277</v>
       </c>
       <c r="B53">
+        <v>0.9120506183491517</v>
+      </c>
+      <c r="C53">
+        <v>0.968263366688377</v>
+      </c>
+      <c r="D53">
         <v>1.046491142213957</v>
-      </c>
-      <c r="C53">
-        <v>0.9120506183491517</v>
-      </c>
-      <c r="D53">
-        <v>0.9682539682539681</v>
       </c>
       <c r="E53">
         <v>0.8820939065338251</v>
       </c>
       <c r="F53">
-        <v>0.9571482342984226</v>
+        <v>0.933622693363759</v>
       </c>
       <c r="G53">
         <v>0.9903535512972134</v>
@@ -2337,19 +2349,19 @@
         <v>44278</v>
       </c>
       <c r="B54">
+        <v>0.9101716038730707</v>
+      </c>
+      <c r="C54">
+        <v>0.9692107288767837</v>
+      </c>
+      <c r="D54">
         <v>1.005970441421161</v>
-      </c>
-      <c r="C54">
-        <v>0.9101716038730707</v>
-      </c>
-      <c r="D54">
-        <v>0.9692460317460316</v>
       </c>
       <c r="E54">
         <v>0.8782407662244729</v>
       </c>
       <c r="F54">
-        <v>0.9419533128144226</v>
+        <v>0.925182691270081</v>
       </c>
       <c r="G54">
         <v>0.9767649687220733</v>
@@ -2363,19 +2375,19 @@
         <v>44279</v>
       </c>
       <c r="B55">
+        <v>0.9046879493816509</v>
+      </c>
+      <c r="C55">
+        <v>0.9543489845461542</v>
+      </c>
+      <c r="D55">
         <v>0.9642752275619065</v>
-      </c>
-      <c r="C55">
-        <v>0.9046879493816509</v>
-      </c>
-      <c r="D55">
-        <v>0.9543650793650792</v>
       </c>
       <c r="E55">
         <v>0.8656354929267353</v>
       </c>
       <c r="F55">
-        <v>0.9202570397800813</v>
+        <v>0.9098266104534141</v>
       </c>
       <c r="G55">
         <v>0.9647296811269164</v>
@@ -2389,19 +2401,19 @@
         <v>44280</v>
       </c>
       <c r="B56">
+        <v>0.903115712779216</v>
+      </c>
+      <c r="C56">
+        <v>0.9533424122209723</v>
+      </c>
+      <c r="D56">
         <v>0.9700499168053244</v>
-      </c>
-      <c r="C56">
-        <v>0.903115712779216</v>
-      </c>
-      <c r="D56">
-        <v>0.9533730158730157</v>
       </c>
       <c r="E56">
         <v>0.8743876259151209</v>
       </c>
       <c r="F56">
-        <v>0.9246855284934185</v>
+        <v>0.9129669931862623</v>
       </c>
       <c r="G56">
         <v>0.9670651205963146</v>
@@ -2415,19 +2427,19 @@
         <v>44281</v>
       </c>
       <c r="B57">
+        <v>0.92347809414246</v>
+      </c>
+      <c r="C57">
+        <v>0.968263366688377</v>
+      </c>
+      <c r="D57">
         <v>1.003132034843887</v>
-      </c>
-      <c r="C57">
-        <v>0.92347809414246</v>
-      </c>
-      <c r="D57">
-        <v>0.9682539682539681</v>
       </c>
       <c r="E57">
         <v>0.902075191280894</v>
       </c>
       <c r="F57">
-        <v>0.9508854952650274</v>
+        <v>0.936947606383955</v>
       </c>
       <c r="G57">
         <v>0.9818881721848689</v>
@@ -2441,19 +2453,19 @@
         <v>44284</v>
       </c>
       <c r="B58">
+        <v>0.930955804812578</v>
+      </c>
+      <c r="C58">
+        <v>0.9642962875244242</v>
+      </c>
+      <c r="D58">
         <v>1</v>
-      </c>
-      <c r="C58">
-        <v>0.930955804812578</v>
-      </c>
-      <c r="D58">
-        <v>0.9642857142857142</v>
       </c>
       <c r="E58">
         <v>0.9000385314030935</v>
       </c>
       <c r="F58">
-        <v>0.9497275660142391</v>
+        <v>0.9376465764408275</v>
       </c>
       <c r="G58">
         <v>0.9823829021329928</v>
@@ -2467,19 +2479,19 @@
         <v>44285</v>
       </c>
       <c r="B59">
+        <v>0.9403700508100853</v>
+      </c>
+      <c r="C59">
+        <v>0.9642962875244242</v>
+      </c>
+      <c r="D59">
         <v>1.01380052853088</v>
-      </c>
-      <c r="C59">
-        <v>0.9403700508100853</v>
-      </c>
-      <c r="D59">
-        <v>0.9642857142857142</v>
       </c>
       <c r="E59">
         <v>0.9128639841470799</v>
       </c>
       <c r="F59">
-        <v>0.9602054957098425</v>
+        <v>0.9473569066930907</v>
       </c>
       <c r="G59">
         <v>0.9863752942857905</v>
@@ -2493,19 +2505,19 @@
         <v>44286</v>
       </c>
       <c r="B60">
+        <v>0.9306682005560351</v>
+      </c>
+      <c r="C60">
+        <v>0.957309491384925</v>
+      </c>
+      <c r="D60">
         <v>0.9898208867573652</v>
-      </c>
-      <c r="C60">
-        <v>0.9306682005560351</v>
-      </c>
-      <c r="D60">
-        <v>0.9573412698412698</v>
       </c>
       <c r="E60">
         <v>0.9093411130071007</v>
       </c>
       <c r="F60">
-        <v>0.9481432314054028</v>
+        <v>0.9377862678748732</v>
       </c>
       <c r="G60">
         <v>0.9822462624330348</v>
@@ -2519,19 +2531,19 @@
         <v>44287</v>
       </c>
       <c r="B61">
+        <v>0.9459303997699168</v>
+      </c>
+      <c r="C61">
+        <v>0.9632897151992421</v>
+      </c>
+      <c r="D61">
         <v>0.9985318586669276</v>
-      </c>
-      <c r="C61">
-        <v>0.9459303997699168</v>
-      </c>
-      <c r="D61">
-        <v>0.9632936507936507</v>
       </c>
       <c r="E61">
         <v>0.9260197060604393</v>
       </c>
       <c r="F61">
-        <v>0.960109303289689</v>
+        <v>0.9509033986096347</v>
       </c>
       <c r="G61">
         <v>0.9912911823417532</v>
@@ -2545,19 +2557,19 @@
         <v>44288</v>
       </c>
       <c r="B62">
+        <v>0.9727926373310326</v>
+      </c>
+      <c r="C62">
+        <v>0.9593226360352892</v>
+      </c>
+      <c r="D62">
         <v>1.007047078398747</v>
-      </c>
-      <c r="C62">
-        <v>0.9727926373310326</v>
-      </c>
-      <c r="D62">
-        <v>0.9593253968253966</v>
       </c>
       <c r="E62">
         <v>0.9351021082181978</v>
       </c>
       <c r="F62">
-        <v>0.9697791780033902</v>
+        <v>0.9637841952861723</v>
       </c>
       <c r="G62">
         <v>0.9936391863812625</v>
@@ -2571,19 +2583,19 @@
         <v>44292</v>
       </c>
       <c r="B63">
+        <v>0.964260377720257</v>
+      </c>
+      <c r="C63">
+        <v>0.957309491384925</v>
+      </c>
+      <c r="D63">
         <v>1.012528139375551</v>
-      </c>
-      <c r="C63">
-        <v>0.964260377720257</v>
-      </c>
-      <c r="D63">
-        <v>0.9573412698412698</v>
       </c>
       <c r="E63">
         <v>0.93009302581604</v>
       </c>
       <c r="F63">
-        <v>0.9682545377546323</v>
+        <v>0.9598024360196591</v>
       </c>
       <c r="G63">
         <v>0.9962290583954103</v>
@@ -2597,19 +2609,19 @@
         <v>44293</v>
       </c>
       <c r="B64">
+        <v>0.9411369954942</v>
+      </c>
+      <c r="C64">
+        <v>0.9414411747291136</v>
+      </c>
+      <c r="D64">
         <v>1.024664774395615</v>
-      </c>
-      <c r="C64">
-        <v>0.9411369954942</v>
-      </c>
-      <c r="D64">
-        <v>0.9414682539682538</v>
       </c>
       <c r="E64">
         <v>0.9278912313535531</v>
       </c>
       <c r="F64">
-        <v>0.9652199958024865</v>
+        <v>0.9505981664202807</v>
       </c>
       <c r="G64">
         <v>0.9970112028848254</v>
@@ -2623,19 +2635,19 @@
         <v>44294</v>
       </c>
       <c r="B65">
+        <v>0.9526028185217142</v>
+      </c>
+      <c r="C65">
+        <v>0.9464148262182486</v>
+      </c>
+      <c r="D65">
         <v>1.037584418126652</v>
-      </c>
-      <c r="C65">
-        <v>0.9526028185217142</v>
-      </c>
-      <c r="D65">
-        <v>0.9464285714285714</v>
       </c>
       <c r="E65">
         <v>0.9339461661253923</v>
       </c>
       <c r="F65">
-        <v>0.9743211163262382</v>
+        <v>0.9594470684356708</v>
       </c>
       <c r="G65">
         <v>0.9983728881706143</v>
@@ -2649,19 +2661,19 @@
         <v>44295</v>
       </c>
       <c r="B66">
+        <v>0.9340235835490367</v>
+      </c>
+      <c r="C66">
+        <v>0.9335070164012078</v>
+      </c>
+      <c r="D66">
         <v>1.035039639815993</v>
-      </c>
-      <c r="C66">
-        <v>0.9340235835490367</v>
-      </c>
-      <c r="D66">
-        <v>0.9335317460317458</v>
       </c>
       <c r="E66">
         <v>0.9230472835360819</v>
       </c>
       <c r="F66">
-        <v>0.9646657104851738</v>
+        <v>0.9469838202494176</v>
       </c>
       <c r="G66">
         <v>0.9949945893819959</v>
@@ -2675,19 +2687,19 @@
         <v>44298</v>
       </c>
       <c r="B67">
+        <v>0.9243600805291918</v>
+      </c>
+      <c r="C67">
+        <v>0.9275860027236662</v>
+      </c>
+      <c r="D67">
         <v>0.9920720368014094</v>
-      </c>
-      <c r="C67">
-        <v>0.9243600805291918</v>
-      </c>
-      <c r="D67">
-        <v>0.9275793650793651</v>
       </c>
       <c r="E67">
         <v>0.9037815819893212</v>
       </c>
       <c r="F67">
-        <v>0.9411224230943672</v>
+        <v>0.9292739259580387</v>
       </c>
       <c r="G67">
         <v>0.9779036328883906</v>
@@ -2701,19 +2713,19 @@
         <v>44299</v>
       </c>
       <c r="B68">
+        <v>0.9329306873741733</v>
+      </c>
+      <c r="C68">
+        <v>0.9226123512345313</v>
+      </c>
+      <c r="D68">
         <v>0.9850249584026621</v>
-      </c>
-      <c r="C68">
-        <v>0.9329306873741733</v>
-      </c>
-      <c r="D68">
-        <v>0.9226190476190476</v>
       </c>
       <c r="E68">
         <v>0.9082952606374195</v>
       </c>
       <c r="F68">
-        <v>0.9408116281411351</v>
+        <v>0.9316940258077044</v>
       </c>
       <c r="G68">
         <v>0.9752902023052845</v>
@@ -2727,19 +2739,19 @@
         <v>44300</v>
       </c>
       <c r="B69">
+        <v>0.9379733486722271</v>
+      </c>
+      <c r="C69">
+        <v>0.9236189235597134</v>
+      </c>
+      <c r="D69">
         <v>1.008515219731819</v>
-      </c>
-      <c r="C69">
-        <v>0.9379733486722271</v>
-      </c>
-      <c r="D69">
-        <v>0.923611111111111</v>
       </c>
       <c r="E69">
         <v>0.9174877525183025</v>
       </c>
       <c r="F69">
-        <v>0.9528275689041092</v>
+        <v>0.9404840305227</v>
       </c>
       <c r="G69">
         <v>0.9858805643376666</v>
@@ -2753,19 +2765,19 @@
         <v>44301</v>
       </c>
       <c r="B70">
+        <v>0.9307257214073436</v>
+      </c>
+      <c r="C70">
+        <v>0.9107111137426728</v>
+      </c>
+      <c r="D70">
         <v>1.024273270040129</v>
-      </c>
-      <c r="C70">
-        <v>0.9307257214073436</v>
-      </c>
-      <c r="D70">
-        <v>0.9107142857142857</v>
       </c>
       <c r="E70">
         <v>0.9100016513458469</v>
       </c>
       <c r="F70">
-        <v>0.9523910579328423</v>
+        <v>0.9360197135467886</v>
       </c>
       <c r="G70">
         <v>0.9857627714928752</v>
@@ -2779,19 +2791,19 @@
         <v>44302</v>
       </c>
       <c r="B71">
+        <v>0.9368037580289523</v>
+      </c>
+      <c r="C71">
+        <v>0.9205992065841672</v>
+      </c>
+      <c r="D71">
         <v>1.01840070470784</v>
-      </c>
-      <c r="C71">
-        <v>0.9368037580289523</v>
-      </c>
-      <c r="D71">
-        <v>0.9206349206349207</v>
       </c>
       <c r="E71">
         <v>0.9101667859305334</v>
       </c>
       <c r="F71">
-        <v>0.9530886609372806</v>
+        <v>0.938803302450101</v>
       </c>
       <c r="G71">
         <v>0.9956777878817863</v>
@@ -2805,19 +2817,19 @@
         <v>44305</v>
       </c>
       <c r="B72">
+        <v>0.9533122423545204</v>
+      </c>
+      <c r="C72">
+        <v>0.9315530818876191</v>
+      </c>
+      <c r="D72">
         <v>1.056670255456592</v>
-      </c>
-      <c r="C72">
-        <v>0.9533122423545204</v>
-      </c>
-      <c r="D72">
-        <v>0.931547619047619</v>
       </c>
       <c r="E72">
         <v>0.9470468431771893</v>
       </c>
       <c r="F72">
-        <v>0.9827952222350668</v>
+        <v>0.9647084713108043</v>
       </c>
       <c r="G72">
         <v>1.009132871899496</v>
@@ -2831,19 +2843,19 @@
         <v>44306</v>
       </c>
       <c r="B73">
+        <v>0.9631866551624966</v>
+      </c>
+      <c r="C73">
+        <v>0.9265794303984841</v>
+      </c>
+      <c r="D73">
         <v>1.046784770480572</v>
-      </c>
-      <c r="C73">
-        <v>0.9631866551624966</v>
-      </c>
-      <c r="D73">
-        <v>0.9265873015873016</v>
       </c>
       <c r="E73">
         <v>0.942147850498156</v>
       </c>
       <c r="F73">
-        <v>0.9786283154915025</v>
+        <v>0.9639973465646845</v>
       </c>
       <c r="G73">
         <v>1.009648019274051</v>
@@ -2857,19 +2869,19 @@
         <v>44307</v>
       </c>
       <c r="B74">
+        <v>0.9699165947656027</v>
+      </c>
+      <c r="C74">
+        <v>0.9265794303984841</v>
+      </c>
+      <c r="D74">
         <v>1.039346187726339</v>
-      </c>
-      <c r="C74">
-        <v>0.9699165947656027</v>
-      </c>
-      <c r="D74">
-        <v>0.9265873015873016</v>
       </c>
       <c r="E74">
         <v>0.9496889965321738</v>
       </c>
       <c r="F74">
-        <v>0.9796982155808017</v>
+        <v>0.9675467380665179</v>
       </c>
       <c r="G74">
         <v>1.008347586267553</v>
@@ -2883,19 +2895,19 @@
         <v>44308</v>
       </c>
       <c r="B75">
+        <v>0.9683060109289618</v>
+      </c>
+      <c r="C75">
+        <v>0.9275860027236662</v>
+      </c>
+      <c r="D75">
         <v>1.043652735636684</v>
-      </c>
-      <c r="C75">
-        <v>0.9683060109289618</v>
-      </c>
-      <c r="D75">
-        <v>0.9275793650793651</v>
       </c>
       <c r="E75">
         <v>0.9561842901965102</v>
       </c>
       <c r="F75">
-        <v>0.9832038329226949</v>
+        <v>0.9700192513101532</v>
       </c>
       <c r="G75">
         <v>1.012306996423809</v>
@@ -2909,19 +2921,19 @@
         <v>44309</v>
       </c>
       <c r="B76">
+        <v>0.9826478765219059</v>
+      </c>
+      <c r="C76">
+        <v>0.929539937237255</v>
+      </c>
+      <c r="D76">
         <v>1.055006361945777</v>
-      </c>
-      <c r="C76">
-        <v>0.9826478765219059</v>
-      </c>
-      <c r="D76">
-        <v>0.929563492063492</v>
       </c>
       <c r="E76">
         <v>0.9633401221995926</v>
       </c>
       <c r="F76">
-        <v>0.9921192792040203</v>
+        <v>0.9794526577085139</v>
       </c>
       <c r="G76">
         <v>1.015022514139068</v>
@@ -2935,19 +2947,19 @@
         <v>44312</v>
       </c>
       <c r="B77">
+        <v>0.9628990509059535</v>
+      </c>
+      <c r="C77">
+        <v>0.9107111137426728</v>
+      </c>
+      <c r="D77">
         <v>1.06313007732211</v>
-      </c>
-      <c r="C77">
-        <v>0.9628990509059535</v>
-      </c>
-      <c r="D77">
-        <v>0.9107142857142857</v>
       </c>
       <c r="E77">
         <v>0.9595970716133649</v>
       </c>
       <c r="F77">
-        <v>0.9872774604642675</v>
+        <v>0.9697365074661239</v>
       </c>
       <c r="G77">
         <v>1.011864095327393</v>
@@ -2961,19 +2973,19 @@
         <v>44313</v>
       </c>
       <c r="B78">
+        <v>0.9706835394497172</v>
+      </c>
+      <c r="C78">
+        <v>0.9205992065841672</v>
+      </c>
+      <c r="D78">
         <v>1.065479103455026</v>
-      </c>
-      <c r="C78">
-        <v>0.9706835394497172</v>
-      </c>
-      <c r="D78">
-        <v>0.9206349206349207</v>
       </c>
       <c r="E78">
         <v>0.9641107502614631</v>
       </c>
       <c r="F78">
-        <v>0.992486988674957</v>
+        <v>0.9758918721556535</v>
       </c>
       <c r="G78">
         <v>1.012434212696184</v>
@@ -2987,19 +2999,19 @@
         <v>44314</v>
       </c>
       <c r="B79">
+        <v>0.9790432365065671</v>
+      </c>
+      <c r="C79">
+        <v>0.9236189235597134</v>
+      </c>
+      <c r="D79">
         <v>1.065870607810512</v>
-      </c>
-      <c r="C79">
-        <v>0.9790432365065671</v>
-      </c>
-      <c r="D79">
-        <v>0.923611111111111</v>
       </c>
       <c r="E79">
         <v>0.9692849672483074</v>
       </c>
       <c r="F79">
-        <v>0.9961980132044324</v>
+        <v>0.9810045122802615</v>
       </c>
       <c r="G79">
         <v>1.019259915409032</v>
@@ -3013,19 +3025,19 @@
         <v>44315</v>
       </c>
       <c r="B80">
+        <v>0.995398331895312</v>
+      </c>
+      <c r="C80">
+        <v>0.9364675232399786</v>
+      </c>
+      <c r="D80">
         <v>1.076049721053147</v>
-      </c>
-      <c r="C80">
-        <v>0.995398331895312</v>
-      </c>
-      <c r="D80">
-        <v>0.9365079365079364</v>
       </c>
       <c r="E80">
         <v>0.9702757747564265</v>
       </c>
       <c r="F80">
-        <v>1.004812445114227</v>
+        <v>0.9906917838223925</v>
       </c>
       <c r="G80">
         <v>1.019603870515823</v>
@@ -3039,19 +3051,19 @@
         <v>44316</v>
       </c>
       <c r="B81">
+        <v>0.9877288850541657</v>
+      </c>
+      <c r="C81">
+        <v>0.9236189235597134</v>
+      </c>
+      <c r="D81">
         <v>1.073798571009102</v>
-      </c>
-      <c r="C81">
-        <v>0.9877288850541657</v>
-      </c>
-      <c r="D81">
-        <v>0.923611111111111</v>
       </c>
       <c r="E81">
         <v>0.9739637804810921</v>
       </c>
       <c r="F81">
-        <v>1.001870661069126</v>
+        <v>0.9868097550810315</v>
       </c>
       <c r="G81">
         <v>1.018626975189686</v>
@@ -3065,19 +3077,19 @@
         <v>44322</v>
       </c>
       <c r="B82">
+        <v>0.9597162304668776</v>
+      </c>
+      <c r="C82">
+        <v>0.9196518443957604</v>
+      </c>
+      <c r="D82">
         <v>1.10061661935989</v>
-      </c>
-      <c r="C82">
-        <v>0.9597162304668776</v>
-      </c>
-      <c r="D82">
-        <v>0.9196428571428571</v>
       </c>
       <c r="E82">
         <v>0.9494688170859251</v>
       </c>
       <c r="F82">
-        <v>0.9976286096763243</v>
+        <v>0.972972524516776</v>
       </c>
       <c r="G82">
         <v>1.01919866312974</v>
@@ -3091,19 +3103,19 @@
         <v>44323</v>
       </c>
       <c r="B83">
+        <v>0.9463522193461796</v>
+      </c>
+      <c r="C83">
+        <v>0.9146781929066256</v>
+      </c>
+      <c r="D83">
         <v>1.129587941665851</v>
-      </c>
-      <c r="C83">
-        <v>0.9463522193461796</v>
-      </c>
-      <c r="D83">
-        <v>0.9146825396825397</v>
       </c>
       <c r="E83">
         <v>0.9160015412561237</v>
       </c>
       <c r="F83">
-        <v>0.9934111440206489</v>
+        <v>0.9613441753966806</v>
       </c>
       <c r="G83">
         <v>1.012145227583629</v>
@@ -3117,19 +3129,19 @@
         <v>44326</v>
       </c>
       <c r="B84">
+        <v>0.9288467069312627</v>
+      </c>
+      <c r="C84">
+        <v>0.9156847652318076</v>
+      </c>
+      <c r="D84">
         <v>1.185181560144857</v>
-      </c>
-      <c r="C84">
-        <v>0.9288467069312627</v>
-      </c>
-      <c r="D84">
-        <v>0.9156746031746033</v>
       </c>
       <c r="E84">
         <v>0.9165519898717455</v>
       </c>
       <c r="F84">
-        <v>1.009769903274395</v>
+        <v>0.9649129807014549</v>
       </c>
       <c r="G84">
         <v>1.017100379921189</v>
@@ -3143,19 +3155,19 @@
         <v>44327</v>
       </c>
       <c r="B85">
+        <v>0.9523727351164799</v>
+      </c>
+      <c r="C85">
+        <v>0.9186452720705786</v>
+      </c>
+      <c r="D85">
         <v>1.136341391797984</v>
-      </c>
-      <c r="C85">
-        <v>0.9523727351164799</v>
-      </c>
-      <c r="D85">
-        <v>0.9186507936507936</v>
       </c>
       <c r="E85">
         <v>0.9294875323388563</v>
       </c>
       <c r="F85">
-        <v>1.001805841129737</v>
+        <v>0.9696104151497387</v>
       </c>
       <c r="G85">
         <v>1.013967090249737</v>
@@ -3169,19 +3181,19 @@
         <v>44328</v>
       </c>
       <c r="B86">
+        <v>0.9638002109097882</v>
+      </c>
+      <c r="C86">
+        <v>0.9166321274202143</v>
+      </c>
+      <c r="D86">
         <v>1.141920328863659</v>
-      </c>
-      <c r="C86">
-        <v>0.9638002109097882</v>
-      </c>
-      <c r="D86">
-        <v>0.9166666666666666</v>
       </c>
       <c r="E86">
         <v>0.9342764352947652</v>
       </c>
       <c r="F86">
-        <v>1.006841170261032</v>
+        <v>0.9756644506434395</v>
       </c>
       <c r="G86">
         <v>1.022763859898761</v>
@@ -3195,19 +3207,19 @@
         <v>44329</v>
       </c>
       <c r="B87">
+        <v>0.9615952449429586</v>
+      </c>
+      <c r="C87">
+        <v>0.9086979690923085</v>
+      </c>
+      <c r="D87">
         <v>1.084662816873838</v>
-      </c>
-      <c r="C87">
-        <v>0.9615952449429586</v>
-      </c>
-      <c r="D87">
-        <v>0.9087301587301587</v>
       </c>
       <c r="E87">
         <v>0.9261297957835637</v>
       </c>
       <c r="F87">
-        <v>0.9830118819517453</v>
+        <v>0.9614697455735961</v>
       </c>
       <c r="G87">
         <v>1.011295548529867</v>
@@ -3221,19 +3233,19 @@
         <v>44330</v>
       </c>
       <c r="B88">
+        <v>0.9779311667146007</v>
+      </c>
+      <c r="C88">
+        <v>0.9464148262182486</v>
+      </c>
+      <c r="D88">
         <v>1.089850249584027</v>
-      </c>
-      <c r="C88">
-        <v>0.9779311667146007</v>
-      </c>
-      <c r="D88">
-        <v>0.9464285714285714</v>
       </c>
       <c r="E88">
         <v>0.9461661253921947</v>
       </c>
       <c r="F88">
-        <v>1.000303263031617</v>
+        <v>0.980715155569764</v>
       </c>
       <c r="G88">
         <v>1.024923395386604</v>
@@ -3247,19 +3259,19 @@
         <v>44333</v>
       </c>
       <c r="B89">
+        <v>0.998868756590931</v>
+      </c>
+      <c r="C89">
+        <v>0.940493812540707</v>
+      </c>
+      <c r="D89">
         <v>1.121757854556132</v>
-      </c>
-      <c r="C89">
-        <v>0.998868756590931</v>
-      </c>
-      <c r="D89">
-        <v>0.9404761904761904</v>
       </c>
       <c r="E89">
         <v>0.9626245389992844</v>
       </c>
       <c r="F89">
-        <v>1.019055684684924</v>
+        <v>0.9975530001816588</v>
       </c>
       <c r="G89">
         <v>1.033143765381782</v>
@@ -3273,19 +3285,19 @@
         <v>44334</v>
       </c>
       <c r="B90">
+        <v>0.9968171795609243</v>
+      </c>
+      <c r="C90">
+        <v>0.9493753330570193</v>
+      </c>
+      <c r="D90">
         <v>1.136047763531369</v>
-      </c>
-      <c r="C90">
-        <v>0.9968171795609243</v>
-      </c>
-      <c r="D90">
-        <v>0.9494047619047618</v>
       </c>
       <c r="E90">
         <v>0.9574503220124402</v>
       </c>
       <c r="F90">
-        <v>1.023341466206609</v>
+        <v>0.9989712582519037</v>
       </c>
       <c r="G90">
         <v>1.036514211314081</v>
@@ -3299,19 +3311,19 @@
         <v>44335</v>
       </c>
       <c r="B91">
+        <v>0.9916211293260475</v>
+      </c>
+      <c r="C91">
+        <v>0.9364675232399786</v>
+      </c>
+      <c r="D91">
         <v>1.142311833219144</v>
-      </c>
-      <c r="C91">
-        <v>0.9916211293260475</v>
-      </c>
-      <c r="D91">
-        <v>0.9365079365079364</v>
       </c>
       <c r="E91">
         <v>0.9614685969064788</v>
       </c>
       <c r="F91">
-        <v>1.023811956136254</v>
+        <v>0.9974344147657496</v>
       </c>
       <c r="G91">
         <v>1.034125372421711</v>
@@ -3325,19 +3337,19 @@
         <v>44336</v>
       </c>
       <c r="B92">
+        <v>1.00274182724571</v>
+      </c>
+      <c r="C92">
+        <v>0.9484279708686126</v>
+      </c>
+      <c r="D92">
         <v>1.107957326025252</v>
-      </c>
-      <c r="C92">
-        <v>1.00274182724571</v>
-      </c>
-      <c r="D92">
-        <v>0.9484126984126983</v>
       </c>
       <c r="E92">
         <v>0.9660373204161391</v>
       </c>
       <c r="F92">
-        <v>1.017438303319549</v>
+        <v>0.999028110988355</v>
       </c>
       <c r="G92">
         <v>1.028521574152166</v>
@@ -3351,19 +3363,19 @@
         <v>44337</v>
       </c>
       <c r="B93">
+        <v>0.9942095676349344</v>
+      </c>
+      <c r="C93">
+        <v>0.9335070164012078</v>
+      </c>
+      <c r="D93">
         <v>1.114221395713027</v>
-      </c>
-      <c r="C93">
-        <v>0.9942095676349344</v>
-      </c>
-      <c r="D93">
-        <v>0.9335317460317458</v>
       </c>
       <c r="E93">
         <v>0.9549182583805801</v>
       </c>
       <c r="F93">
-        <v>1.012035616563023</v>
+        <v>0.991029466260318</v>
       </c>
       <c r="G93">
         <v>1.025246933066964</v>
@@ -3377,19 +3389,19 @@
         <v>44340</v>
       </c>
       <c r="B94">
+        <v>1.001994056178698</v>
+      </c>
+      <c r="C94">
+        <v>0.9345135887263899</v>
+      </c>
+      <c r="D94">
         <v>1.106195556425565</v>
-      </c>
-      <c r="C94">
-        <v>1.001994056178698</v>
-      </c>
-      <c r="D94">
-        <v>0.9345238095238094</v>
       </c>
       <c r="E94">
         <v>0.96251444927616</v>
       </c>
       <c r="F94">
-        <v>1.013261705286739</v>
+        <v>0.9950247563119629</v>
       </c>
       <c r="G94">
         <v>1.027800681942043</v>
@@ -3403,19 +3415,19 @@
         <v>44341</v>
       </c>
       <c r="B95">
+        <v>1.034550858019365</v>
+      </c>
+      <c r="C95">
+        <v>0.9712238735271479</v>
+      </c>
+      <c r="D95">
         <v>1.115493784868357</v>
-      </c>
-      <c r="C95">
-        <v>1.034550858019365</v>
-      </c>
-      <c r="D95">
-        <v>0.9712301587301587</v>
       </c>
       <c r="E95">
         <v>0.9911928221500523</v>
       </c>
       <c r="F95">
-        <v>1.03731538592843</v>
+        <v>1.02314933667136</v>
       </c>
       <c r="G95">
         <v>1.0396663478407</v>
@@ -3429,19 +3441,19 @@
         <v>44342</v>
       </c>
       <c r="B96">
+        <v>1.029278113316077</v>
+      </c>
+      <c r="C96">
+        <v>0.9741843803659186</v>
+      </c>
+      <c r="D96">
         <v>1.125477145933248</v>
-      </c>
-      <c r="C96">
-        <v>1.029278113316077</v>
-      </c>
-      <c r="D96">
-        <v>0.9742063492063491</v>
       </c>
       <c r="E96">
         <v>0.985027797655089</v>
       </c>
       <c r="F96">
-        <v>1.038296339159684</v>
+        <v>1.021457883593008</v>
       </c>
       <c r="G96">
         <v>1.041007615700059</v>
@@ -3455,19 +3467,19 @@
         <v>44343</v>
       </c>
       <c r="B97">
+        <v>1.030524398427763</v>
+      </c>
+      <c r="C97">
+        <v>0.9712238735271479</v>
+      </c>
+      <c r="D97">
         <v>1.125672898110991</v>
-      </c>
-      <c r="C97">
-        <v>1.030524398427763</v>
-      </c>
-      <c r="D97">
-        <v>0.9712301587301587</v>
       </c>
       <c r="E97">
         <v>0.9947707381515936</v>
       </c>
       <c r="F97">
-        <v>1.04129263087882</v>
+        <v>1.024640606375758</v>
       </c>
       <c r="G97">
         <v>1.049991283329486</v>
@@ -3481,19 +3493,19 @@
         <v>44344</v>
       </c>
       <c r="B98">
+        <v>1.02354520180232</v>
+      </c>
+      <c r="C98">
+        <v>0.9741843803659186</v>
+      </c>
+      <c r="D98">
         <v>1.142996965841245</v>
-      </c>
-      <c r="C98">
-        <v>1.02354520180232</v>
-      </c>
-      <c r="D98">
-        <v>0.9742063492063491</v>
       </c>
       <c r="E98">
         <v>0.9871195023944515</v>
       </c>
       <c r="F98">
-        <v>1.043997410092623</v>
+        <v>1.02308972652714</v>
       </c>
       <c r="G98">
         <v>1.047283618470546</v>
@@ -3507,19 +3519,19 @@
         <v>44347</v>
       </c>
       <c r="B99">
+        <v>1.024292972869332</v>
+      </c>
+      <c r="C99">
+        <v>0.96228314287406</v>
+      </c>
+      <c r="D99">
         <v>1.174415190368993</v>
-      </c>
-      <c r="C99">
-        <v>1.024292972869332</v>
-      </c>
-      <c r="D99">
-        <v>0.9623015873015872</v>
       </c>
       <c r="E99">
         <v>0.9958165905212748</v>
       </c>
       <c r="F99">
-        <v>1.05570874202568</v>
+        <v>1.029434310632697</v>
       </c>
       <c r="G99">
         <v>1.0568358328975</v>
@@ -3533,19 +3545,19 @@
         <v>44348</v>
       </c>
       <c r="B100">
+        <v>1.031118780557952</v>
+      </c>
+      <c r="C100">
+        <v>0.9474213985434307</v>
+      </c>
+      <c r="D100">
         <v>1.176079083879808</v>
-      </c>
-      <c r="C100">
-        <v>1.031118780557952</v>
-      </c>
-      <c r="D100">
-        <v>0.9474206349206348</v>
       </c>
       <c r="E100">
         <v>1.000165134584686</v>
       </c>
       <c r="F100">
-        <v>1.056380386486048</v>
+        <v>1.031012459402485</v>
       </c>
       <c r="G100">
         <v>1.058527338148705</v>
@@ -3559,19 +3571,19 @@
         <v>44349</v>
       </c>
       <c r="B101">
+        <v>1.022203048605119</v>
+      </c>
+      <c r="C101">
+        <v>0.9474213985434307</v>
+      </c>
+      <c r="D101">
         <v>1.15914652050504</v>
-      </c>
-      <c r="C101">
-        <v>1.022203048605119</v>
-      </c>
-      <c r="D101">
-        <v>0.9474206349206348</v>
       </c>
       <c r="E101">
         <v>0.9820003302691694</v>
       </c>
       <c r="F101">
-        <v>1.043157833742289</v>
+        <v>1.019192852157564</v>
       </c>
       <c r="G101">
         <v>1.049366195966459</v>
@@ -3585,19 +3597,19 @@
         <v>44350</v>
       </c>
       <c r="B102">
+        <v>1.024235452018023</v>
+      </c>
+      <c r="C102">
+        <v>0.9394872402155249</v>
+      </c>
+      <c r="D102">
         <v>1.159440148771655</v>
-      </c>
-      <c r="C102">
-        <v>1.024235452018023</v>
-      </c>
-      <c r="D102">
-        <v>0.939484126984127</v>
       </c>
       <c r="E102">
         <v>0.9725876589420377</v>
       </c>
       <c r="F102">
-        <v>1.03917730856859</v>
+        <v>1.015517000319885</v>
       </c>
       <c r="G102">
         <v>1.047214513334935</v>
@@ -3611,19 +3623,19 @@
         <v>44351</v>
       </c>
       <c r="B103">
+        <v>1.033649698015531</v>
+      </c>
+      <c r="C103">
+        <v>0.9503819053822014</v>
+      </c>
+      <c r="D103">
         <v>1.15581873348341</v>
-      </c>
-      <c r="C103">
-        <v>1.033649698015531</v>
-      </c>
-      <c r="D103">
-        <v>0.9503968253968254</v>
       </c>
       <c r="E103">
         <v>0.9779270105135686</v>
       </c>
       <c r="F103">
-        <v>1.043061959216876</v>
+        <v>1.021679916207584</v>
       </c>
       <c r="G103">
         <v>1.051192770346358</v>
@@ -3637,19 +3649,19 @@
         <v>44354</v>
       </c>
       <c r="B104">
+        <v>1.02902885629374</v>
+      </c>
+      <c r="C104">
+        <v>0.9464148262182486</v>
+      </c>
+      <c r="D104">
         <v>1.150533424684349</v>
-      </c>
-      <c r="C104">
-        <v>1.02902885629374</v>
-      </c>
-      <c r="D104">
-        <v>0.9464285714285714</v>
       </c>
       <c r="E104">
         <v>0.9835966312544724</v>
       </c>
       <c r="F104">
-        <v>1.041718728280836</v>
+        <v>1.020453160852776</v>
       </c>
       <c r="G104">
         <v>1.055659475020849</v>
@@ -3663,19 +3675,19 @@
         <v>44355</v>
       </c>
       <c r="B105">
+        <v>0.9966637906241014</v>
+      </c>
+      <c r="C105">
+        <v>0.9484279708686126</v>
+      </c>
+      <c r="D105">
         <v>1.124009004600176</v>
-      </c>
-      <c r="C105">
-        <v>0.9966637906241014</v>
-      </c>
-      <c r="D105">
-        <v>0.9484126984126983</v>
       </c>
       <c r="E105">
         <v>0.9782022348213794</v>
       </c>
       <c r="F105">
-        <v>1.025907419746187</v>
+        <v>1.0036245272556</v>
       </c>
       <c r="G105">
         <v>1.049857784772055</v>
@@ -3689,19 +3701,19 @@
         <v>44356</v>
       </c>
       <c r="B106">
+        <v>1.001879014476081</v>
+      </c>
+      <c r="C106">
+        <v>0.9484279708686126</v>
+      </c>
+      <c r="D106">
         <v>1.12753254379955</v>
-      </c>
-      <c r="C106">
-        <v>1.001879014476081</v>
-      </c>
-      <c r="D106">
-        <v>0.9484126984126983</v>
       </c>
       <c r="E106">
         <v>0.9823305994385424</v>
       </c>
       <c r="F106">
-        <v>1.029328295333215</v>
+        <v>1.007341447656833</v>
       </c>
       <c r="G106">
         <v>1.051167641206136</v>
@@ -3715,19 +3727,19 @@
         <v>44357</v>
       </c>
       <c r="B107">
+        <v>1.008052919183204</v>
+      </c>
+      <c r="C107">
+        <v>0.9364675232399786</v>
+      </c>
+      <c r="D107">
         <v>1.132719976509739</v>
-      </c>
-      <c r="C107">
-        <v>1.008052919183204</v>
-      </c>
-      <c r="D107">
-        <v>0.9365079365079364</v>
       </c>
       <c r="E107">
         <v>0.9964220839984588</v>
       </c>
       <c r="F107">
-        <v>1.034796620921841</v>
+        <v>1.012973217700484</v>
       </c>
       <c r="G107">
         <v>1.062591976579641</v>
@@ -3741,19 +3753,19 @@
         <v>44358</v>
       </c>
       <c r="B108">
+        <v>0.9877480586712685</v>
+      </c>
+      <c r="C108">
+        <v>0.9216057789093492</v>
+      </c>
+      <c r="D108">
         <v>1.133600861309582</v>
-      </c>
-      <c r="C108">
-        <v>0.9877480586712685</v>
-      </c>
-      <c r="D108">
-        <v>0.9216269841269842</v>
       </c>
       <c r="E108">
         <v>0.9917983156272362</v>
       </c>
       <c r="F108">
-        <v>1.027764619063958</v>
+        <v>1.002236879741343</v>
       </c>
       <c r="G108">
         <v>1.056353667519487</v>
@@ -3767,19 +3779,19 @@
         <v>44362</v>
       </c>
       <c r="B109">
+        <v>0.9800977854472247</v>
+      </c>
+      <c r="C109">
+        <v>0.9047308899283557</v>
+      </c>
+      <c r="D109">
         <v>1.096701575805031</v>
-      </c>
-      <c r="C109">
-        <v>0.9800977854472247</v>
-      </c>
-      <c r="D109">
-        <v>0.9047619047619047</v>
       </c>
       <c r="E109">
         <v>0.9863488743325811</v>
       </c>
       <c r="F109">
-        <v>1.009375513187969</v>
+        <v>0.988964732427817</v>
       </c>
       <c r="G109">
         <v>1.046575290830534</v>
@@ -3793,19 +3805,19 @@
         <v>44363</v>
       </c>
       <c r="B110">
+        <v>0.972313296903461</v>
+      </c>
+      <c r="C110">
+        <v>0.9067440345787199</v>
+      </c>
+      <c r="D110">
         <v>1.050308309679945</v>
-      </c>
-      <c r="C110">
-        <v>0.972313296903461</v>
-      </c>
-      <c r="D110">
-        <v>0.9067460317460317</v>
       </c>
       <c r="E110">
         <v>0.9576154565971267</v>
       </c>
       <c r="F110">
-        <v>0.9831627151953994</v>
+        <v>0.9695132584269084</v>
       </c>
       <c r="G110">
         <v>1.031282638434078</v>
@@ -3819,19 +3831,19 @@
         <v>44364</v>
       </c>
       <c r="B111">
+        <v>0.9761288467069313</v>
+      </c>
+      <c r="C111">
+        <v>0.8948427970868613</v>
+      </c>
+      <c r="D111">
         <v>1.054810609768034</v>
-      </c>
-      <c r="C111">
-        <v>0.9761288467069313</v>
-      </c>
-      <c r="D111">
-        <v>0.8948412698412698</v>
       </c>
       <c r="E111">
         <v>0.9843672593163428</v>
       </c>
       <c r="F111">
-        <v>0.9921868721259778</v>
+        <v>0.9784178155858075</v>
       </c>
       <c r="G111">
         <v>1.03911664789834</v>
@@ -3845,19 +3857,19 @@
         <v>44365</v>
       </c>
       <c r="B112">
+        <v>0.9630524398427764</v>
+      </c>
+      <c r="C112">
+        <v>0.8888625732725443</v>
+      </c>
+      <c r="D112">
         <v>1.073504942742488</v>
-      </c>
-      <c r="C112">
-        <v>0.9630524398427764</v>
-      </c>
-      <c r="D112">
-        <v>0.8888888888888888</v>
       </c>
       <c r="E112">
         <v>0.9963670391368966</v>
       </c>
       <c r="F112">
-        <v>0.9993631226883466</v>
+        <v>0.9800295926042002</v>
       </c>
       <c r="G112">
         <v>1.045648653784841</v>
@@ -3871,19 +3883,19 @@
         <v>44368</v>
       </c>
       <c r="B113">
+        <v>0.9528137283098458</v>
+      </c>
+      <c r="C113">
+        <v>0.8829415595950026</v>
+      </c>
+      <c r="D113">
         <v>1.068121757854556</v>
-      </c>
-      <c r="C113">
-        <v>0.9528137283098458</v>
-      </c>
-      <c r="D113">
-        <v>0.8829365079365079</v>
       </c>
       <c r="E113">
         <v>0.9975229812297023</v>
       </c>
       <c r="F113">
-        <v>0.9952427704569993</v>
+        <v>0.9750646988103265</v>
       </c>
       <c r="G113">
         <v>1.053410416970965</v>
@@ -3897,19 +3909,19 @@
         <v>44369</v>
       </c>
       <c r="B114">
+        <v>0.9582782091841626</v>
+      </c>
+      <c r="C114">
+        <v>0.8918822902480904</v>
+      </c>
+      <c r="D114">
         <v>1.073896447097974</v>
-      </c>
-      <c r="C114">
-        <v>0.9582782091841626</v>
-      </c>
-      <c r="D114">
-        <v>0.8918650793650793</v>
       </c>
       <c r="E114">
         <v>1.004733858094347</v>
       </c>
       <c r="F114">
-        <v>1.001960607795071</v>
+        <v>0.9817302559558504</v>
       </c>
       <c r="G114">
         <v>1.058532049862497</v>
@@ -3923,19 +3935,19 @@
         <v>44370</v>
       </c>
       <c r="B115">
+        <v>0.9451442814686992</v>
+      </c>
+      <c r="C115">
+        <v>0.897803303925632</v>
+      </c>
+      <c r="D115">
         <v>1.092003523539199</v>
-      </c>
-      <c r="C115">
-        <v>0.9451442814686992</v>
-      </c>
-      <c r="D115">
-        <v>0.8978174603174602</v>
       </c>
       <c r="E115">
         <v>1.020972092255188</v>
       </c>
       <c r="F115">
-        <v>1.012290675842256</v>
+        <v>0.986587972675267</v>
       </c>
       <c r="G115">
         <v>1.066410035322148</v>
@@ -3949,19 +3961,19 @@
         <v>44371</v>
       </c>
       <c r="B116">
+        <v>0.9467932125395456</v>
+      </c>
+      <c r="C116">
+        <v>0.897803303925632</v>
+      </c>
+      <c r="D116">
         <v>1.084956445140452</v>
-      </c>
-      <c r="C116">
-        <v>0.9467932125395456</v>
-      </c>
-      <c r="D116">
-        <v>0.8978174603174602</v>
       </c>
       <c r="E116">
         <v>1.01343094622117</v>
       </c>
       <c r="F116">
-        <v>1.007678164622146</v>
+        <v>0.9834972631123355</v>
       </c>
       <c r="G116">
         <v>1.060900471328436</v>
@@ -3975,19 +3987,19 @@
         <v>44372</v>
       </c>
       <c r="B117">
+        <v>0.9647397181478287</v>
+      </c>
+      <c r="C117">
+        <v>0.9077506069039019</v>
+      </c>
+      <c r="D117">
         <v>1.113829891357541</v>
-      </c>
-      <c r="C117">
-        <v>0.9647397181478287</v>
-      </c>
-      <c r="D117">
-        <v>0.9077380952380952</v>
       </c>
       <c r="E117">
         <v>1.016898772499587</v>
       </c>
       <c r="F117">
-        <v>1.023237597195105</v>
+        <v>0.9971488813082636</v>
       </c>
       <c r="G117">
         <v>1.070094595507224</v>
@@ -4001,25 +4013,259 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.113829891357541</v>
+        <v>0.979925222893299</v>
       </c>
       <c r="C118">
-        <v>0.9647397181478287</v>
+        <v>0.8958493694120433</v>
       </c>
       <c r="D118">
-        <v>0.9077380952380952</v>
+        <v>1.10453166291475</v>
       </c>
       <c r="E118">
-        <v>1.016898772499587</v>
+        <v>1.028513238289206</v>
       </c>
       <c r="F118">
-        <v>1.023237597195105</v>
+        <v>1.00264681475308</v>
       </c>
       <c r="G118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="H118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>0.9655833573003547</v>
+      </c>
+      <c r="C119">
+        <v>0.8848954941085914</v>
+      </c>
+      <c r="D119">
+        <v>1.088871488695312</v>
+      </c>
+      <c r="E119">
+        <v>1.018109759453955</v>
+      </c>
+      <c r="F119">
+        <v>0.9899461142645698</v>
+      </c>
+      <c r="G119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="H119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>0.9664269964528809</v>
+      </c>
+      <c r="C120">
+        <v>0.8869086387589555</v>
+      </c>
+      <c r="D120">
+        <v>1.108055202114124</v>
+      </c>
+      <c r="E120">
+        <v>1.042439588264436</v>
+      </c>
+      <c r="F120">
+        <v>1.001759276665301</v>
+      </c>
+      <c r="G120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="H120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>0.9736362764835588</v>
+      </c>
+      <c r="C121">
+        <v>0.8898691455977262</v>
+      </c>
+      <c r="D121">
+        <v>1.087305471273368</v>
+      </c>
+      <c r="E121">
+        <v>1.034237903891672</v>
+      </c>
+      <c r="F121">
+        <v>0.9985686540723924</v>
+      </c>
+      <c r="G121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="H121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>0.9452593231713163</v>
+      </c>
+      <c r="C122">
+        <v>0.8631061637752383</v>
+      </c>
+      <c r="D122">
+        <v>1.101399628070862</v>
+      </c>
+      <c r="E122">
+        <v>1.007541146034018</v>
+      </c>
+      <c r="F122">
+        <v>0.9780202037240802</v>
+      </c>
+      <c r="G122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="H122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>0.9396606269772794</v>
+      </c>
+      <c r="C123">
+        <v>0.866066670614009</v>
+      </c>
+      <c r="D123">
+        <v>1.152980326906137</v>
+      </c>
+      <c r="E123">
+        <v>1.013981394836792</v>
+      </c>
+      <c r="F123">
+        <v>0.9872412280592404</v>
+      </c>
+      <c r="G123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="H123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>0.934828875467357</v>
+      </c>
+      <c r="C124">
+        <v>0.8799218426194564</v>
+      </c>
+      <c r="D124">
+        <v>1.164333953215229</v>
+      </c>
+      <c r="E124">
+        <v>1.006165024494963</v>
+      </c>
+      <c r="F124">
+        <v>0.9871784820549625</v>
+      </c>
+      <c r="G124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="H124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>0.9378966542038157</v>
+      </c>
+      <c r="C125">
+        <v>0.8740008289419148</v>
+      </c>
+      <c r="D125">
+        <v>1.201428990897524</v>
+      </c>
+      <c r="E125">
+        <v>1.019265701546761</v>
+      </c>
+      <c r="F125">
+        <v>0.9976884642132358</v>
+      </c>
+      <c r="G125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="H125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>0.9208704822164703</v>
+      </c>
+      <c r="C126">
+        <v>0.8551720054473325</v>
+      </c>
+      <c r="D126">
+        <v>1.205539786630126</v>
+      </c>
+      <c r="E126">
+        <v>1.026696757857654</v>
+      </c>
+      <c r="F126">
+        <v>0.9919233397394065</v>
+      </c>
+      <c r="G126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="H126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>0.9037676157607133</v>
+      </c>
+      <c r="C127">
+        <v>0.8491917816330155</v>
+      </c>
+      <c r="D127">
+        <v>1.27415092492904</v>
+      </c>
+      <c r="E127">
+        <v>1.014641933175538</v>
+      </c>
+      <c r="F127">
+        <v>0.9924643738893093</v>
+      </c>
+      <c r="G127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="H127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -4131,18 +4377,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
@@ -4174,172 +4420,157 @@
       <c r="L1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I2">
-        <v>0.34</v>
+        <v>0.165</v>
       </c>
       <c r="J2">
-        <v>39.53</v>
+        <v>8.680999755859375</v>
       </c>
       <c r="K2">
-        <v>3.11</v>
+        <v>37.81980133056641</v>
       </c>
       <c r="L2">
-        <v>16.99</v>
-      </c>
-      <c r="M2">
-        <v>24.35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>21.132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I3">
         <v>0.165</v>
       </c>
       <c r="J3">
-        <v>41.16</v>
+        <v>1.080199956893921</v>
       </c>
       <c r="K3">
-        <v>9.26</v>
+        <v>9.924599647521973</v>
       </c>
       <c r="L3">
-        <v>13.51</v>
-      </c>
-      <c r="M3">
-        <v>21.13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>-10.1588</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I4">
-        <v>0.165</v>
+        <v>0.34</v>
       </c>
       <c r="J4">
-        <v>10.59</v>
+        <v>3.554100036621094</v>
       </c>
       <c r="K4">
-        <v>1.14</v>
+        <v>45.20259857177734</v>
       </c>
       <c r="L4">
-        <v>7.93</v>
-      </c>
-      <c r="M4">
-        <v>-10.16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>24.3531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I5">
         <v>0.33</v>
       </c>
       <c r="J5">
-        <v>46.01</v>
+        <v>6.168000221252441</v>
       </c>
       <c r="K5">
-        <v>6.21</v>
+        <v>45.57669830322266</v>
       </c>
       <c r="L5">
-        <v>20.56</v>
-      </c>
-      <c r="M5">
-        <v>16.22</v>
+        <v>16.2202</v>
       </c>
     </row>
   </sheetData>
@@ -4357,19 +4588,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4377,19 +4608,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4397,19 +4628,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4417,19 +4648,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4437,19 +4668,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4457,19 +4688,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4477,19 +4708,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4497,19 +4728,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4517,19 +4748,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4537,19 +4768,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4557,19 +4788,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4577,19 +4808,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4597,19 +4828,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4617,19 +4848,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4637,19 +4868,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4657,19 +4888,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4677,19 +4908,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4697,19 +4928,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4717,19 +4948,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4737,19 +4968,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4757,19 +4988,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4779,7 +5010,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4787,98 +5018,120 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
-        <v>181</v>
-      </c>
-      <c r="C9" t="s">
-        <v>188</v>
+      <c r="B11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
